--- a/Pre_Processing/abiotic_mi_sampling/lab_univariate.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_univariate.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>wd_cm</t>
+          <t>wd_m</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -406,10 +406,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>0.0019</v>
       </c>
       <c r="D2">
         <v>2734822.966</v>
@@ -434,10 +434,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>0.0024</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>0.0036</v>
       </c>
       <c r="D3">
         <v>2734821.586</v>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>0.0014</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>0.0043</v>
       </c>
       <c r="D4">
         <v>2734820.122</v>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>0.001</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>0.0009</v>
       </c>
       <c r="D5">
         <v>2734822.048</v>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="D6">
         <v>2734820.51</v>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>0.0051</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>0.0049</v>
       </c>
       <c r="D7">
         <v>2734819.422</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>0.0008</v>
       </c>
       <c r="D8">
         <v>2734842.711</v>
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>0.0027</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>0.0015</v>
       </c>
       <c r="D9">
         <v>2734840.93</v>
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>0.0037</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="D10">
         <v>2734839.109</v>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>0.001</v>
       </c>
       <c r="D11">
         <v>2734848.046</v>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>0.0014</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>0.0023</v>
       </c>
       <c r="D12">
         <v>2734847.009</v>
@@ -714,10 +714,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>0.001</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>0.0028</v>
       </c>
       <c r="D13">
         <v>2734844.813</v>
@@ -742,10 +742,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D14">
         <v>2736794.555</v>
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>0.0026</v>
       </c>
       <c r="D15">
         <v>2736795.293</v>
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>0.0036</v>
       </c>
       <c r="D16">
         <v>2736797.722</v>
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>0.0009</v>
       </c>
       <c r="D17">
         <v>2736788.393</v>
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="D18">
         <v>2736790.236</v>
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>0.0042</v>
       </c>
       <c r="D19">
         <v>2736791.653</v>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>0.0014</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>0.0012</v>
       </c>
       <c r="D20">
         <v>2736779.218</v>
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>0.0053</v>
       </c>
       <c r="D21">
         <v>2736779.933</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="C22">
-        <v>48</v>
+        <v>0.0048</v>
       </c>
       <c r="D22">
         <v>2736780.461</v>
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>0.0014</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>0.0019</v>
       </c>
       <c r="D23">
         <v>2736773.965</v>
@@ -1022,10 +1022,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>0.0033</v>
       </c>
       <c r="D24">
         <v>2736774.94</v>
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>0.0064</v>
       </c>
       <c r="C25">
-        <v>43</v>
+        <v>0.0043</v>
       </c>
       <c r="D25">
         <v>2736775.968</v>
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>0.0012</v>
       </c>
       <c r="D26">
         <v>2729452.93</v>
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>0.0034</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="D27">
         <v>2729453.503</v>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>0.0064</v>
       </c>
       <c r="C28">
-        <v>62</v>
+        <v>0.0062</v>
       </c>
       <c r="D28">
         <v>2729455.95</v>
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="D29">
         <v>2729467.877</v>
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>0.006</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>0.0034</v>
       </c>
       <c r="D30">
         <v>2729468.705</v>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>0.0129</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>0.0053</v>
       </c>
       <c r="D31">
         <v>2729472.058</v>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C32">
-        <v>9</v>
+        <v>0.0009</v>
       </c>
       <c r="D32">
         <v>2729479.749</v>
@@ -1274,10 +1274,10 @@
         </is>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>0.0091</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>0.0053</v>
       </c>
       <c r="D33">
         <v>2729481.799</v>
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B34">
-        <v>76</v>
+        <v>0.0076</v>
       </c>
       <c r="C34">
-        <v>67</v>
+        <v>0.0067</v>
       </c>
       <c r="D34">
         <v>2729484.994</v>
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>0.0008</v>
       </c>
       <c r="D35">
         <v>2729492.519</v>
@@ -1358,10 +1358,10 @@
         </is>
       </c>
       <c r="B36">
-        <v>51</v>
+        <v>0.0051</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="D36">
         <v>2729492.55</v>
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="B37">
-        <v>45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="C37">
-        <v>49</v>
+        <v>0.0049</v>
       </c>
       <c r="D37">
         <v>2729483.169</v>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>0.0021</v>
       </c>
       <c r="D38">
         <v>2724226.173</v>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>0.0014</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>0.0043</v>
       </c>
       <c r="D39">
         <v>2724223.029</v>
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>0.0027</v>
       </c>
       <c r="C40">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="D40">
         <v>2724220.552</v>
@@ -1498,10 +1498,10 @@
         </is>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>0.0015</v>
       </c>
       <c r="D41">
         <v>2724246.208</v>
@@ -1526,10 +1526,10 @@
         </is>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>0.0024</v>
       </c>
       <c r="C42">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="D42">
         <v>2724242.675</v>
@@ -1554,10 +1554,10 @@
         </is>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="C43">
-        <v>53</v>
+        <v>0.0053</v>
       </c>
       <c r="D43">
         <v>2724239.893</v>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>0.0017</v>
       </c>
       <c r="D44">
         <v>2724271.197</v>
@@ -1610,10 +1610,10 @@
         </is>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>0.0033</v>
       </c>
       <c r="D45">
         <v>2724266.559</v>
@@ -1638,10 +1638,10 @@
         </is>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>0.0022</v>
       </c>
       <c r="C46">
-        <v>47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="D46">
         <v>2724262.863</v>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>0.0015</v>
       </c>
       <c r="D47">
         <v>2724301.635</v>
@@ -1694,10 +1694,10 @@
         </is>
       </c>
       <c r="B48">
-        <v>27</v>
+        <v>0.0027</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>0.0028</v>
       </c>
       <c r="D48">
         <v>2724299.362</v>
@@ -1722,10 +1722,10 @@
         </is>
       </c>
       <c r="B49">
-        <v>41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>0.0037</v>
       </c>
       <c r="D49">
         <v>2724296.812</v>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>0.001</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="D50">
         <v>2723228.944</v>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="B51">
-        <v>64</v>
+        <v>0.0064</v>
       </c>
       <c r="C51">
-        <v>45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="D51">
         <v>2723231.037</v>
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="B52">
-        <v>70</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="C52">
-        <v>47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="D52">
         <v>2723233.635</v>
@@ -1834,10 +1834,10 @@
         </is>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>0.001</v>
       </c>
       <c r="C53">
-        <v>19</v>
+        <v>0.0019</v>
       </c>
       <c r="D53">
         <v>2723247.566</v>
@@ -1862,10 +1862,10 @@
         </is>
       </c>
       <c r="B54">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="C54">
-        <v>49</v>
+        <v>0.0049</v>
       </c>
       <c r="D54">
         <v>2723247.176</v>
@@ -1890,10 +1890,10 @@
         </is>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>0.006</v>
       </c>
       <c r="C55">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="D55">
         <v>2723253.1</v>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>0.0014</v>
       </c>
       <c r="C56">
-        <v>34</v>
+        <v>0.0034</v>
       </c>
       <c r="D56">
         <v>2723269.258</v>
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>0.0062</v>
       </c>
       <c r="C57">
-        <v>49</v>
+        <v>0.0049</v>
       </c>
       <c r="D57">
         <v>2723272.918</v>
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="B58">
-        <v>72</v>
+        <v>0.0072</v>
       </c>
       <c r="C58">
-        <v>83</v>
+        <v>0.0083</v>
       </c>
       <c r="D58">
         <v>2723280.564</v>
@@ -2002,10 +2002,10 @@
         </is>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C59">
-        <v>27</v>
+        <v>0.0027</v>
       </c>
       <c r="D59">
         <v>2723285.605</v>
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="C60">
-        <v>69</v>
+        <v>0.0069</v>
       </c>
       <c r="D60">
         <v>2723291.038</v>
@@ -2058,10 +2058,10 @@
         </is>
       </c>
       <c r="B61">
-        <v>49</v>
+        <v>0.0049</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>0.0061</v>
       </c>
       <c r="D61">
         <v>2723297.98</v>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>0.0009</v>
       </c>
       <c r="D62">
         <v>2723366.066</v>
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="B63">
-        <v>69</v>
+        <v>0.0069</v>
       </c>
       <c r="C63">
-        <v>70</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="D63">
         <v>2723359.849</v>
@@ -2142,10 +2142,10 @@
         </is>
       </c>
       <c r="B64">
-        <v>72</v>
+        <v>0.0072</v>
       </c>
       <c r="C64">
-        <v>77</v>
+        <v>0.0077</v>
       </c>
       <c r="D64">
         <v>2723353.398</v>
@@ -2170,10 +2170,10 @@
         </is>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>0.0012</v>
       </c>
       <c r="D65">
         <v>2723333.9</v>
@@ -2198,10 +2198,10 @@
         </is>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>0.0019</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>0.0053</v>
       </c>
       <c r="D66">
         <v>2723329.101</v>
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B67">
-        <v>45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="C67">
-        <v>90</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="D67">
         <v>2723325.553</v>
@@ -2254,10 +2254,10 @@
         </is>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>0.0017</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>0.0013</v>
       </c>
       <c r="D68">
         <v>2723215.171</v>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="B69">
-        <v>139</v>
+        <v>0.0139</v>
       </c>
       <c r="C69">
-        <v>42</v>
+        <v>0.0042</v>
       </c>
       <c r="D69">
         <v>2723201.949</v>
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B70">
-        <v>135</v>
+        <v>0.0135</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>0.0036</v>
       </c>
       <c r="D70">
         <v>2723184.903</v>
@@ -2338,10 +2338,10 @@
         </is>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D71">
         <v>2723219.139</v>
@@ -2366,10 +2366,10 @@
         </is>
       </c>
       <c r="B72">
-        <v>72</v>
+        <v>0.0072</v>
       </c>
       <c r="C72">
-        <v>61</v>
+        <v>0.0061</v>
       </c>
       <c r="D72">
         <v>2723211.554</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B73">
-        <v>94</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="C73">
-        <v>71</v>
+        <v>0.0071</v>
       </c>
       <c r="D73">
         <v>2723203.218</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C74">
-        <v>13</v>
+        <v>0.0013</v>
       </c>
       <c r="D74">
         <v>2742136.499</v>
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C75">
-        <v>73</v>
+        <v>0.0073</v>
       </c>
       <c r="D75">
         <v>2742133.302</v>
@@ -2478,10 +2478,10 @@
         </is>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>0.0019</v>
       </c>
       <c r="C76">
-        <v>106</v>
+        <v>0.0106</v>
       </c>
       <c r="D76">
         <v>2742128.621</v>
@@ -2506,10 +2506,10 @@
         </is>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D77">
         <v>2742123.285</v>
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="B78">
-        <v>38</v>
+        <v>0.0038</v>
       </c>
       <c r="C78">
-        <v>53</v>
+        <v>0.0053</v>
       </c>
       <c r="D78">
         <v>2742118.852</v>
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="B79">
-        <v>69</v>
+        <v>0.0069</v>
       </c>
       <c r="C79">
-        <v>61</v>
+        <v>0.0061</v>
       </c>
       <c r="D79">
         <v>2742116.269</v>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="C80">
-        <v>19</v>
+        <v>0.0019</v>
       </c>
       <c r="D80">
         <v>2742118.569</v>
@@ -2618,10 +2618,10 @@
         </is>
       </c>
       <c r="B81">
-        <v>69</v>
+        <v>0.0069</v>
       </c>
       <c r="C81">
-        <v>37</v>
+        <v>0.0037</v>
       </c>
       <c r="D81">
         <v>2742115.15</v>
@@ -2646,10 +2646,10 @@
         </is>
       </c>
       <c r="B82">
-        <v>120</v>
+        <v>0.012</v>
       </c>
       <c r="C82">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="D82">
         <v>2742112.858</v>
@@ -2674,10 +2674,10 @@
         </is>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C83">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="D83">
         <v>2742159.694</v>
@@ -2702,10 +2702,10 @@
         </is>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>0.0027</v>
       </c>
       <c r="C84">
-        <v>53</v>
+        <v>0.0053</v>
       </c>
       <c r="D84">
         <v>2742154.977</v>
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B85">
-        <v>33</v>
+        <v>0.0033</v>
       </c>
       <c r="C85">
-        <v>66</v>
+        <v>0.0066</v>
       </c>
       <c r="D85">
         <v>2742150.3</v>
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>0.0002</v>
       </c>
       <c r="C86">
-        <v>24</v>
+        <v>0.0024</v>
       </c>
       <c r="D86">
         <v>2743458.686</v>
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="B87">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="C87">
-        <v>76</v>
+        <v>0.0076</v>
       </c>
       <c r="D87">
         <v>2743462.07</v>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="B88">
-        <v>19</v>
+        <v>0.0019</v>
       </c>
       <c r="C88">
-        <v>91</v>
+        <v>0.0091</v>
       </c>
       <c r="D88">
         <v>2743464.677</v>
@@ -2842,10 +2842,10 @@
         </is>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D89">
         <v>2743416.296</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B90">
-        <v>19</v>
+        <v>0.0019</v>
       </c>
       <c r="C90">
-        <v>46</v>
+        <v>0.0046</v>
       </c>
       <c r="D90">
         <v>2743416.808</v>
@@ -2898,10 +2898,10 @@
         </is>
       </c>
       <c r="B91">
-        <v>36</v>
+        <v>0.0036</v>
       </c>
       <c r="C91">
-        <v>68</v>
+        <v>0.0068</v>
       </c>
       <c r="D91">
         <v>2743417.595</v>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="B92">
-        <v>22</v>
+        <v>0.0022</v>
       </c>
       <c r="C92">
-        <v>18</v>
+        <v>0.0018</v>
       </c>
       <c r="D92">
         <v>2743372.595</v>
@@ -2954,10 +2954,10 @@
         </is>
       </c>
       <c r="B93">
-        <v>66</v>
+        <v>0.0066</v>
       </c>
       <c r="C93">
-        <v>34</v>
+        <v>0.0034</v>
       </c>
       <c r="D93">
         <v>2743369.91</v>
@@ -2982,10 +2982,10 @@
         </is>
       </c>
       <c r="B94">
-        <v>113</v>
+        <v>0.0113</v>
       </c>
       <c r="C94">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="D94">
         <v>2743363.472</v>
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C95">
-        <v>33</v>
+        <v>0.0033</v>
       </c>
       <c r="D95">
         <v>2743378.786</v>
@@ -3038,10 +3038,10 @@
         </is>
       </c>
       <c r="B96">
-        <v>33</v>
+        <v>0.0033</v>
       </c>
       <c r="C96">
-        <v>77</v>
+        <v>0.0077</v>
       </c>
       <c r="D96">
         <v>2743375.546</v>
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="B97">
-        <v>33</v>
+        <v>0.0033</v>
       </c>
       <c r="C97">
-        <v>82</v>
+        <v>0.008199999999999999</v>
       </c>
       <c r="D97">
         <v>2743372.187</v>
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C98">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D98">
         <v>2743332.409</v>
@@ -3122,10 +3122,10 @@
         </is>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>0.0013</v>
       </c>
       <c r="C99">
-        <v>70</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="D99">
         <v>2743330.389</v>
@@ -3150,10 +3150,10 @@
         </is>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C100">
-        <v>89</v>
+        <v>0.0089</v>
       </c>
       <c r="D100">
         <v>2743329.05</v>
@@ -3178,10 +3178,10 @@
         </is>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C101">
-        <v>25</v>
+        <v>0.0025</v>
       </c>
       <c r="D101">
         <v>2743344.568</v>
@@ -3206,10 +3206,10 @@
         </is>
       </c>
       <c r="B102">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="C102">
-        <v>57</v>
+        <v>0.005699999999999999</v>
       </c>
       <c r="D102">
         <v>2743343.282</v>
@@ -3234,10 +3234,10 @@
         </is>
       </c>
       <c r="B103">
-        <v>33</v>
+        <v>0.0033</v>
       </c>
       <c r="C103">
-        <v>65</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="D103">
         <v>2743342.309</v>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="B104">
-        <v>24</v>
+        <v>0.0024</v>
       </c>
       <c r="C104">
-        <v>19</v>
+        <v>0.0019</v>
       </c>
       <c r="D104">
         <v>2743350.691</v>
@@ -3290,10 +3290,10 @@
         </is>
       </c>
       <c r="B105">
-        <v>83</v>
+        <v>0.0083</v>
       </c>
       <c r="C105">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="D105">
         <v>2743349.449</v>
@@ -3318,10 +3318,10 @@
         </is>
       </c>
       <c r="B106">
-        <v>47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="C106">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="D106">
         <v>2743347.875</v>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C107">
-        <v>21</v>
+        <v>0.0021</v>
       </c>
       <c r="D107">
         <v>2743380.451</v>
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="C108">
-        <v>24</v>
+        <v>0.0024</v>
       </c>
       <c r="D108">
         <v>2743380.779</v>
@@ -3402,10 +3402,10 @@
         </is>
       </c>
       <c r="B109">
-        <v>33</v>
+        <v>0.0033</v>
       </c>
       <c r="C109">
-        <v>70</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="D109">
         <v>2743380.264</v>
@@ -3430,10 +3430,10 @@
         </is>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C110">
-        <v>13</v>
+        <v>0.0013</v>
       </c>
       <c r="D110">
         <v>2734155.885</v>
@@ -3458,10 +3458,10 @@
         </is>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>0.0022</v>
       </c>
       <c r="C111">
-        <v>51</v>
+        <v>0.0051</v>
       </c>
       <c r="D111">
         <v>2734160.239</v>
@@ -3486,10 +3486,10 @@
         </is>
       </c>
       <c r="B112">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="C112">
-        <v>74</v>
+        <v>0.0074</v>
       </c>
       <c r="D112">
         <v>2734164.721</v>
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="B113">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="C113">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D113">
         <v>2734187.861</v>
@@ -3542,10 +3542,10 @@
         </is>
       </c>
       <c r="B114">
-        <v>27</v>
+        <v>0.0027</v>
       </c>
       <c r="C114">
-        <v>41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="D114">
         <v>2734194.159</v>
@@ -3570,10 +3570,10 @@
         </is>
       </c>
       <c r="B115">
-        <v>74</v>
+        <v>0.0074</v>
       </c>
       <c r="C115">
-        <v>62</v>
+        <v>0.0062</v>
       </c>
       <c r="D115">
         <v>2734197.665</v>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="B116">
-        <v>14</v>
+        <v>0.0014</v>
       </c>
       <c r="C116">
-        <v>18</v>
+        <v>0.0018</v>
       </c>
       <c r="D116">
         <v>2734202.938</v>
@@ -3626,10 +3626,10 @@
         </is>
       </c>
       <c r="B117">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="C117">
-        <v>40</v>
+        <v>0.004</v>
       </c>
       <c r="D117">
         <v>2734208.986</v>
@@ -3654,10 +3654,10 @@
         </is>
       </c>
       <c r="B118">
-        <v>94</v>
+        <v>0.009399999999999999</v>
       </c>
       <c r="C118">
-        <v>59</v>
+        <v>0.0059</v>
       </c>
       <c r="D118">
         <v>2734215.143</v>
@@ -3682,10 +3682,10 @@
         </is>
       </c>
       <c r="B119">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="C119">
-        <v>18</v>
+        <v>0.0018</v>
       </c>
       <c r="D119">
         <v>2734224.145</v>
@@ -3710,10 +3710,10 @@
         </is>
       </c>
       <c r="B120">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="C120">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="D120">
         <v>2734231.618</v>
@@ -3738,10 +3738,10 @@
         </is>
       </c>
       <c r="B121">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="C121">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="D121">
         <v>2734235.725</v>
@@ -3766,10 +3766,10 @@
         </is>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>0.001</v>
       </c>
       <c r="C122">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="D122">
         <v>2576387.499</v>
@@ -3794,10 +3794,10 @@
         </is>
       </c>
       <c r="B123">
-        <v>37</v>
+        <v>0.0037</v>
       </c>
       <c r="C123">
-        <v>36</v>
+        <v>0.0036</v>
       </c>
       <c r="D123">
         <v>2576389.998</v>
@@ -3822,10 +3822,10 @@
         </is>
       </c>
       <c r="B124">
-        <v>64</v>
+        <v>0.0064</v>
       </c>
       <c r="C124">
-        <v>46</v>
+        <v>0.0046</v>
       </c>
       <c r="D124">
         <v>2576391.39</v>
@@ -3850,10 +3850,10 @@
         </is>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="D125">
         <v>2576354.563</v>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="B126">
-        <v>31</v>
+        <v>0.0031</v>
       </c>
       <c r="C126">
-        <v>51</v>
+        <v>0.0051</v>
       </c>
       <c r="D126">
         <v>2576357.847</v>
@@ -3906,10 +3906,10 @@
         </is>
       </c>
       <c r="B127">
-        <v>60</v>
+        <v>0.006</v>
       </c>
       <c r="C127">
-        <v>58</v>
+        <v>0.0058</v>
       </c>
       <c r="D127">
         <v>2576359.485</v>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="C128">
-        <v>9</v>
+        <v>0.0009</v>
       </c>
       <c r="D128">
         <v>2576331.741</v>
@@ -3962,10 +3962,10 @@
         </is>
       </c>
       <c r="B129">
-        <v>109</v>
+        <v>0.0109</v>
       </c>
       <c r="C129">
-        <v>38</v>
+        <v>0.0038</v>
       </c>
       <c r="D129">
         <v>2576333.64</v>
@@ -3990,10 +3990,10 @@
         </is>
       </c>
       <c r="B130">
-        <v>102</v>
+        <v>0.0102</v>
       </c>
       <c r="C130">
-        <v>34</v>
+        <v>0.0034</v>
       </c>
       <c r="D130">
         <v>2576335.269</v>
@@ -4018,10 +4018,10 @@
         </is>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C131">
-        <v>9</v>
+        <v>0.0009</v>
       </c>
       <c r="D131">
         <v>2576316.104</v>
@@ -4046,10 +4046,10 @@
         </is>
       </c>
       <c r="B132">
-        <v>52</v>
+        <v>0.0052</v>
       </c>
       <c r="C132">
-        <v>34</v>
+        <v>0.0034</v>
       </c>
       <c r="D132">
         <v>2576317.881</v>
@@ -4074,10 +4074,10 @@
         </is>
       </c>
       <c r="B133">
-        <v>72</v>
+        <v>0.0072</v>
       </c>
       <c r="C133">
-        <v>40</v>
+        <v>0.004</v>
       </c>
       <c r="D133">
         <v>2576319.414</v>
@@ -4102,10 +4102,10 @@
         </is>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>0.0003</v>
       </c>
       <c r="C134">
-        <v>14</v>
+        <v>0.0014</v>
       </c>
       <c r="D134">
         <v>2575586.286</v>
@@ -4130,10 +4130,10 @@
         </is>
       </c>
       <c r="B135">
-        <v>26</v>
+        <v>0.0026</v>
       </c>
       <c r="C135">
-        <v>28</v>
+        <v>0.0028</v>
       </c>
       <c r="D135">
         <v>2575582.185</v>
@@ -4158,10 +4158,10 @@
         </is>
       </c>
       <c r="B136">
-        <v>45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="C136">
-        <v>33</v>
+        <v>0.0033</v>
       </c>
       <c r="D136">
         <v>2575578.339</v>
@@ -4186,10 +4186,10 @@
         </is>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>0.0009</v>
       </c>
       <c r="C137">
-        <v>18</v>
+        <v>0.0018</v>
       </c>
       <c r="D137">
         <v>2575585.106</v>
@@ -4214,10 +4214,10 @@
         </is>
       </c>
       <c r="B138">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="C138">
-        <v>29</v>
+        <v>0.0029</v>
       </c>
       <c r="D138">
         <v>2575580.608</v>
@@ -4242,10 +4242,10 @@
         </is>
       </c>
       <c r="B139">
-        <v>47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="C139">
-        <v>51</v>
+        <v>0.0051</v>
       </c>
       <c r="D139">
         <v>2575576.93</v>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="B140">
-        <v>18</v>
+        <v>0.0018</v>
       </c>
       <c r="C140">
-        <v>13</v>
+        <v>0.0013</v>
       </c>
       <c r="D140">
         <v>2575584.319</v>
@@ -4298,10 +4298,10 @@
         </is>
       </c>
       <c r="B141">
-        <v>65</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="C141">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="D141">
         <v>2575579.283</v>
@@ -4326,10 +4326,10 @@
         </is>
       </c>
       <c r="B142">
-        <v>75</v>
+        <v>0.0075</v>
       </c>
       <c r="C142">
-        <v>53</v>
+        <v>0.0053</v>
       </c>
       <c r="D142">
         <v>2575575.53</v>
@@ -4354,10 +4354,10 @@
         </is>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>0.0002</v>
       </c>
       <c r="C143">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="D143">
         <v>2575595.907</v>
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="B144">
-        <v>42</v>
+        <v>0.0042</v>
       </c>
       <c r="C144">
-        <v>24</v>
+        <v>0.0024</v>
       </c>
       <c r="D144">
         <v>2575589.22</v>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="B145">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="C145">
-        <v>49</v>
+        <v>0.0049</v>
       </c>
       <c r="D145">
         <v>2575583.262</v>
@@ -4438,10 +4438,10 @@
         </is>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="C146">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="D146">
         <v>2579336.846</v>
@@ -4466,10 +4466,10 @@
         </is>
       </c>
       <c r="B147">
-        <v>42</v>
+        <v>0.0042</v>
       </c>
       <c r="C147">
-        <v>28</v>
+        <v>0.0028</v>
       </c>
       <c r="D147">
         <v>2579340.226</v>
@@ -4494,10 +4494,10 @@
         </is>
       </c>
       <c r="B148">
-        <v>47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="C148">
-        <v>56</v>
+        <v>0.005600000000000001</v>
       </c>
       <c r="D148">
         <v>2579342.199</v>
@@ -4522,10 +4522,10 @@
         </is>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>0.0003</v>
       </c>
       <c r="C149">
-        <v>12</v>
+        <v>0.0012</v>
       </c>
       <c r="D149">
         <v>2579351.752</v>
@@ -4550,10 +4550,10 @@
         </is>
       </c>
       <c r="B150">
-        <v>57</v>
+        <v>0.005699999999999999</v>
       </c>
       <c r="C150">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="D150">
         <v>2579354.745</v>
@@ -4578,10 +4578,10 @@
         </is>
       </c>
       <c r="B151">
-        <v>75</v>
+        <v>0.0075</v>
       </c>
       <c r="C151">
-        <v>62</v>
+        <v>0.0062</v>
       </c>
       <c r="D151">
         <v>2579360.786</v>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="D152">
         <v>2579367.687</v>
@@ -4634,10 +4634,10 @@
         </is>
       </c>
       <c r="B153">
-        <v>82</v>
+        <v>0.008199999999999999</v>
       </c>
       <c r="C153">
-        <v>38</v>
+        <v>0.0038</v>
       </c>
       <c r="D153">
         <v>2579371.137</v>
@@ -4662,10 +4662,10 @@
         </is>
       </c>
       <c r="B154">
-        <v>122</v>
+        <v>0.0122</v>
       </c>
       <c r="C154">
-        <v>56</v>
+        <v>0.005600000000000001</v>
       </c>
       <c r="D154">
         <v>2579372.832</v>
@@ -4690,10 +4690,10 @@
         </is>
       </c>
       <c r="B155">
-        <v>13</v>
+        <v>0.0013</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="D155">
         <v>2579383.987</v>
@@ -4718,10 +4718,10 @@
         </is>
       </c>
       <c r="B156">
-        <v>49</v>
+        <v>0.0049</v>
       </c>
       <c r="C156">
-        <v>40</v>
+        <v>0.004</v>
       </c>
       <c r="D156">
         <v>2579388.171</v>
@@ -4746,10 +4746,10 @@
         </is>
       </c>
       <c r="B157">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="C157">
-        <v>59</v>
+        <v>0.0059</v>
       </c>
       <c r="D157">
         <v>2579391.292</v>
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="D158">
         <v>2584537.727</v>
@@ -4802,10 +4802,10 @@
         </is>
       </c>
       <c r="B159">
-        <v>26</v>
+        <v>0.0026</v>
       </c>
       <c r="C159">
-        <v>29</v>
+        <v>0.0029</v>
       </c>
       <c r="D159">
         <v>2584530.12</v>
@@ -4830,10 +4830,10 @@
         </is>
       </c>
       <c r="B160">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="C160">
-        <v>85</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="D160">
         <v>2584524.207</v>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C161">
-        <v>10</v>
+        <v>0.001</v>
       </c>
       <c r="D161">
         <v>2584513.192</v>
@@ -4886,10 +4886,10 @@
         </is>
       </c>
       <c r="B162">
-        <v>47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="C162">
-        <v>61</v>
+        <v>0.0061</v>
       </c>
       <c r="D162">
         <v>2584504.443</v>
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B163">
-        <v>58</v>
+        <v>0.0058</v>
       </c>
       <c r="C163">
-        <v>88</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="D163">
         <v>2584500.077</v>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>0.0007000000000000001</v>
       </c>
       <c r="C164">
-        <v>9</v>
+        <v>0.0009</v>
       </c>
       <c r="D164">
         <v>2584473.553</v>
@@ -4970,10 +4970,10 @@
         </is>
       </c>
       <c r="B165">
-        <v>85</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="C165">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="D165">
         <v>2584461.481</v>
@@ -4998,10 +4998,10 @@
         </is>
       </c>
       <c r="B166">
-        <v>117</v>
+        <v>0.0117</v>
       </c>
       <c r="C166">
-        <v>76</v>
+        <v>0.0076</v>
       </c>
       <c r="D166">
         <v>2584454.101</v>
@@ -5026,10 +5026,10 @@
         </is>
       </c>
       <c r="B167">
-        <v>28</v>
+        <v>0.0028</v>
       </c>
       <c r="C167">
-        <v>25</v>
+        <v>0.0025</v>
       </c>
       <c r="D167">
         <v>2584458.622</v>
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B168">
-        <v>90</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="C168">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="D168">
         <v>2584449.091</v>
@@ -5082,10 +5082,10 @@
         </is>
       </c>
       <c r="B169">
-        <v>90</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="C169">
-        <v>59</v>
+        <v>0.0059</v>
       </c>
       <c r="D169">
         <v>2584440.652</v>
@@ -5110,10 +5110,10 @@
         </is>
       </c>
       <c r="B170">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="C170">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="D170">
         <v>2768906.248</v>
@@ -5138,10 +5138,10 @@
         </is>
       </c>
       <c r="B171">
-        <v>80</v>
+        <v>0.008</v>
       </c>
       <c r="C171">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="D171">
         <v>2768905.497</v>
@@ -5166,10 +5166,10 @@
         </is>
       </c>
       <c r="B172">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="C172">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="D172">
         <v>2768905.85</v>
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B173">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="C173">
-        <v>32</v>
+        <v>0.0032</v>
       </c>
       <c r="D173">
         <v>2768943.691</v>
@@ -5222,10 +5222,10 @@
         </is>
       </c>
       <c r="B174">
-        <v>48</v>
+        <v>0.0048</v>
       </c>
       <c r="C174">
-        <v>53</v>
+        <v>0.0053</v>
       </c>
       <c r="D174">
         <v>2768943.608</v>
@@ -5250,10 +5250,10 @@
         </is>
       </c>
       <c r="B175">
-        <v>78</v>
+        <v>0.007800000000000001</v>
       </c>
       <c r="C175">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="D175">
         <v>2768943.348</v>
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="B176">
-        <v>69</v>
+        <v>0.0069</v>
       </c>
       <c r="C176">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="D176">
         <v>2769001.048</v>
@@ -5306,10 +5306,10 @@
         </is>
       </c>
       <c r="B177">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="C177">
-        <v>28</v>
+        <v>0.0028</v>
       </c>
       <c r="D177">
         <v>2769000.714</v>
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B178">
-        <v>73</v>
+        <v>0.0073</v>
       </c>
       <c r="C178">
-        <v>57</v>
+        <v>0.005699999999999999</v>
       </c>
       <c r="D178">
         <v>2768999.514</v>
@@ -5362,10 +5362,10 @@
         </is>
       </c>
       <c r="B179">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="C179">
-        <v>43</v>
+        <v>0.0043</v>
       </c>
       <c r="D179">
         <v>2769032.368</v>
@@ -5390,10 +5390,10 @@
         </is>
       </c>
       <c r="B180">
-        <v>70</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="C180">
-        <v>48</v>
+        <v>0.0048</v>
       </c>
       <c r="D180">
         <v>2769032.741</v>
@@ -5418,10 +5418,10 @@
         </is>
       </c>
       <c r="B181">
-        <v>74</v>
+        <v>0.0074</v>
       </c>
       <c r="C181">
-        <v>48</v>
+        <v>0.0048</v>
       </c>
       <c r="D181">
         <v>2769032.84</v>
@@ -5446,10 +5446,10 @@
         </is>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C182">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="D182">
         <v>2779182.3</v>
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="B183">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="C183">
-        <v>56</v>
+        <v>0.005600000000000001</v>
       </c>
       <c r="D183">
         <v>2779181.994</v>
@@ -5502,10 +5502,10 @@
         </is>
       </c>
       <c r="B184">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="C184">
-        <v>58</v>
+        <v>0.0058</v>
       </c>
       <c r="D184">
         <v>2779182.708</v>
@@ -5530,10 +5530,10 @@
         </is>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C185">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D185">
         <v>2779193.191</v>
@@ -5558,10 +5558,10 @@
         </is>
       </c>
       <c r="B186">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="C186">
-        <v>58</v>
+        <v>0.0058</v>
       </c>
       <c r="D186">
         <v>2779193.201</v>
@@ -5586,10 +5586,10 @@
         </is>
       </c>
       <c r="B187">
-        <v>40</v>
+        <v>0.004</v>
       </c>
       <c r="C187">
-        <v>103</v>
+        <v>0.0103</v>
       </c>
       <c r="D187">
         <v>2779193.912</v>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="B188">
-        <v>42</v>
+        <v>0.0042</v>
       </c>
       <c r="C188">
-        <v>27</v>
+        <v>0.0027</v>
       </c>
       <c r="D188">
         <v>2779242.354</v>
@@ -5642,10 +5642,10 @@
         </is>
       </c>
       <c r="B189">
-        <v>54</v>
+        <v>0.0054</v>
       </c>
       <c r="C189">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="D189">
         <v>2779244.929</v>
@@ -5670,10 +5670,10 @@
         </is>
       </c>
       <c r="B190">
-        <v>96</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="C190">
-        <v>58</v>
+        <v>0.0058</v>
       </c>
       <c r="D190">
         <v>2779245.431</v>
@@ -5698,10 +5698,10 @@
         </is>
       </c>
       <c r="B191">
-        <v>21</v>
+        <v>0.0021</v>
       </c>
       <c r="C191">
-        <v>22</v>
+        <v>0.0022</v>
       </c>
       <c r="D191">
         <v>2779255.123</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B192">
-        <v>70</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="C192">
-        <v>33</v>
+        <v>0.0033</v>
       </c>
       <c r="D192">
         <v>2779257.195</v>
@@ -5754,10 +5754,10 @@
         </is>
       </c>
       <c r="B193">
-        <v>120</v>
+        <v>0.012</v>
       </c>
       <c r="C193">
-        <v>60</v>
+        <v>0.006</v>
       </c>
       <c r="D193">
         <v>2779257.728</v>
@@ -5782,10 +5782,10 @@
         </is>
       </c>
       <c r="B194">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C194">
-        <v>24</v>
+        <v>0.0024</v>
       </c>
       <c r="D194">
         <v>2777147.747</v>
@@ -5810,10 +5810,10 @@
         </is>
       </c>
       <c r="B195">
-        <v>38</v>
+        <v>0.0038</v>
       </c>
       <c r="C195">
-        <v>51</v>
+        <v>0.0051</v>
       </c>
       <c r="D195">
         <v>2777148.101</v>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="B196">
-        <v>77</v>
+        <v>0.0077</v>
       </c>
       <c r="C196">
-        <v>65</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="D196">
         <v>2777149.204</v>
@@ -5866,10 +5866,10 @@
         </is>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>0.0002</v>
       </c>
       <c r="C197">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="D197">
         <v>2777156.023</v>
@@ -5894,10 +5894,10 @@
         </is>
       </c>
       <c r="B198">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="C198">
-        <v>71</v>
+        <v>0.0071</v>
       </c>
       <c r="D198">
         <v>2777154.81</v>
@@ -5922,10 +5922,10 @@
         </is>
       </c>
       <c r="B199">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="C199">
-        <v>72</v>
+        <v>0.0072</v>
       </c>
       <c r="D199">
         <v>2777154.859</v>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="B200">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C200">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D200">
         <v>2777279.658</v>
@@ -5978,10 +5978,10 @@
         </is>
       </c>
       <c r="B201">
-        <v>36</v>
+        <v>0.0036</v>
       </c>
       <c r="C201">
-        <v>38</v>
+        <v>0.0038</v>
       </c>
       <c r="D201">
         <v>2777281.145</v>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="B202">
-        <v>124</v>
+        <v>0.0124</v>
       </c>
       <c r="C202">
-        <v>61</v>
+        <v>0.0061</v>
       </c>
       <c r="D202">
         <v>2777282.005</v>
@@ -6034,10 +6034,10 @@
         </is>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C203">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="D203">
         <v>2777292.361</v>
@@ -6062,10 +6062,10 @@
         </is>
       </c>
       <c r="B204">
-        <v>49</v>
+        <v>0.0049</v>
       </c>
       <c r="C204">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="D204">
         <v>2777292.592</v>
@@ -6090,10 +6090,10 @@
         </is>
       </c>
       <c r="B205">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="C205">
-        <v>56</v>
+        <v>0.005600000000000001</v>
       </c>
       <c r="D205">
         <v>2777294.528</v>
@@ -6118,10 +6118,10 @@
         </is>
       </c>
       <c r="B206">
-        <v>17</v>
+        <v>0.0017</v>
       </c>
       <c r="C206">
-        <v>12</v>
+        <v>0.0012</v>
       </c>
       <c r="D206">
         <v>2773062.092</v>
@@ -6146,10 +6146,10 @@
         </is>
       </c>
       <c r="B207">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="C207">
-        <v>21</v>
+        <v>0.0021</v>
       </c>
       <c r="D207">
         <v>2773060.541</v>
@@ -6174,10 +6174,10 @@
         </is>
       </c>
       <c r="B208">
-        <v>24</v>
+        <v>0.0024</v>
       </c>
       <c r="C208">
-        <v>40</v>
+        <v>0.004</v>
       </c>
       <c r="D208">
         <v>2773058.967</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B209">
-        <v>10</v>
+        <v>0.001</v>
       </c>
       <c r="C209">
-        <v>24</v>
+        <v>0.0024</v>
       </c>
       <c r="D209">
         <v>2773064.408</v>
@@ -6230,10 +6230,10 @@
         </is>
       </c>
       <c r="B210">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="C210">
-        <v>33</v>
+        <v>0.0033</v>
       </c>
       <c r="D210">
         <v>2773063.811</v>
@@ -6258,10 +6258,10 @@
         </is>
       </c>
       <c r="B211">
-        <v>85</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="C211">
-        <v>45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="D211">
         <v>2773063.333</v>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="B212">
-        <v>27</v>
+        <v>0.0027</v>
       </c>
       <c r="C212">
-        <v>22</v>
+        <v>0.0022</v>
       </c>
       <c r="D212">
         <v>2773068.977</v>
@@ -6314,10 +6314,10 @@
         </is>
       </c>
       <c r="B213">
-        <v>52</v>
+        <v>0.0052</v>
       </c>
       <c r="C213">
-        <v>41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="D213">
         <v>2773068.303</v>
@@ -6342,10 +6342,10 @@
         </is>
       </c>
       <c r="B214">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="C214">
-        <v>21</v>
+        <v>0.0021</v>
       </c>
       <c r="D214">
         <v>2773066.053</v>
@@ -6370,10 +6370,10 @@
         </is>
       </c>
       <c r="B215">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="C215">
-        <v>23</v>
+        <v>0.0023</v>
       </c>
       <c r="D215">
         <v>2773072.626</v>
@@ -6398,10 +6398,10 @@
         </is>
       </c>
       <c r="B216">
-        <v>10</v>
+        <v>0.001</v>
       </c>
       <c r="C216">
-        <v>28</v>
+        <v>0.0028</v>
       </c>
       <c r="D216">
         <v>2773071.878</v>
@@ -6426,10 +6426,10 @@
         </is>
       </c>
       <c r="B217">
-        <v>55</v>
+        <v>0.005500000000000001</v>
       </c>
       <c r="C217">
-        <v>37</v>
+        <v>0.0037</v>
       </c>
       <c r="D217">
         <v>2773071.054</v>
@@ -6454,10 +6454,10 @@
         </is>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>0.0002</v>
       </c>
       <c r="C218">
-        <v>23</v>
+        <v>0.0023</v>
       </c>
       <c r="D218">
         <v>2773014.557</v>
@@ -6482,10 +6482,10 @@
         </is>
       </c>
       <c r="B219">
-        <v>81</v>
+        <v>0.008100000000000001</v>
       </c>
       <c r="C219">
-        <v>48</v>
+        <v>0.0048</v>
       </c>
       <c r="D219">
         <v>2773012.586</v>
@@ -6510,10 +6510,10 @@
         </is>
       </c>
       <c r="B220">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="C220">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="D220">
         <v>2773011.689</v>
@@ -6538,10 +6538,10 @@
         </is>
       </c>
       <c r="B221">
-        <v>90</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="C221">
-        <v>43</v>
+        <v>0.0043</v>
       </c>
       <c r="D221">
         <v>2773017.035</v>
@@ -6566,10 +6566,10 @@
         </is>
       </c>
       <c r="B222">
-        <v>65</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="C222">
-        <v>43</v>
+        <v>0.0043</v>
       </c>
       <c r="D222">
         <v>2773016.202</v>
@@ -6594,10 +6594,10 @@
         </is>
       </c>
       <c r="B223">
-        <v>45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="C223">
-        <v>45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="D223">
         <v>2773015.04</v>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="B224">
-        <v>25</v>
+        <v>0.0025</v>
       </c>
       <c r="C224">
-        <v>18</v>
+        <v>0.0018</v>
       </c>
       <c r="D224">
         <v>2773022.819</v>
@@ -6650,10 +6650,10 @@
         </is>
       </c>
       <c r="B225">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="C225">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="D225">
         <v>2773021.465</v>
@@ -6678,10 +6678,10 @@
         </is>
       </c>
       <c r="B226">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="C226">
-        <v>23</v>
+        <v>0.0023</v>
       </c>
       <c r="D226">
         <v>2773019.962</v>
@@ -6706,10 +6706,10 @@
         </is>
       </c>
       <c r="B227">
-        <v>21</v>
+        <v>0.0021</v>
       </c>
       <c r="C227">
-        <v>15</v>
+        <v>0.0015</v>
       </c>
       <c r="D227">
         <v>2773034.839</v>
@@ -6734,10 +6734,10 @@
         </is>
       </c>
       <c r="B228">
-        <v>48</v>
+        <v>0.0048</v>
       </c>
       <c r="C228">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="D228">
         <v>2773034.254</v>
@@ -6762,10 +6762,10 @@
         </is>
       </c>
       <c r="B229">
-        <v>65</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="C229">
-        <v>40</v>
+        <v>0.004</v>
       </c>
       <c r="D229">
         <v>2773032.65</v>
@@ -6790,10 +6790,10 @@
         </is>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>0.0002</v>
       </c>
       <c r="C230">
-        <v>42</v>
+        <v>0.0042</v>
       </c>
       <c r="D230">
         <v>2746361.002</v>
@@ -6818,10 +6818,10 @@
         </is>
       </c>
       <c r="B231">
-        <v>75</v>
+        <v>0.0075</v>
       </c>
       <c r="C231">
-        <v>47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="D231">
         <v>2746367.015</v>
@@ -6846,10 +6846,10 @@
         </is>
       </c>
       <c r="B232">
-        <v>80</v>
+        <v>0.008</v>
       </c>
       <c r="C232">
-        <v>92</v>
+        <v>0.0092</v>
       </c>
       <c r="D232">
         <v>2746372.339</v>
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="B233">
-        <v>8</v>
+        <v>0.0008</v>
       </c>
       <c r="C233">
-        <v>27</v>
+        <v>0.0027</v>
       </c>
       <c r="D233">
         <v>2746263.522</v>
@@ -6902,10 +6902,10 @@
         </is>
       </c>
       <c r="B234">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="C234">
-        <v>60</v>
+        <v>0.006</v>
       </c>
       <c r="D234">
         <v>2746264.819</v>
@@ -6930,10 +6930,10 @@
         </is>
       </c>
       <c r="B235">
-        <v>83</v>
+        <v>0.0083</v>
       </c>
       <c r="C235">
-        <v>92</v>
+        <v>0.0092</v>
       </c>
       <c r="D235">
         <v>2746265.921</v>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="B236">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="C236">
-        <v>32</v>
+        <v>0.0032</v>
       </c>
       <c r="D236">
         <v>2746178.854</v>
@@ -6986,10 +6986,10 @@
         </is>
       </c>
       <c r="B237">
-        <v>66</v>
+        <v>0.0066</v>
       </c>
       <c r="C237">
-        <v>51</v>
+        <v>0.0051</v>
       </c>
       <c r="D237">
         <v>2746178.552</v>
@@ -7014,10 +7014,10 @@
         </is>
       </c>
       <c r="B238">
-        <v>130</v>
+        <v>0.013</v>
       </c>
       <c r="C238">
-        <v>73</v>
+        <v>0.0073</v>
       </c>
       <c r="D238">
         <v>2746178.843</v>
@@ -7042,10 +7042,10 @@
         </is>
       </c>
       <c r="B239">
-        <v>36</v>
+        <v>0.0036</v>
       </c>
       <c r="C239">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D239">
         <v>2746128.403</v>
@@ -7070,10 +7070,10 @@
         </is>
       </c>
       <c r="B240">
-        <v>103</v>
+        <v>0.0103</v>
       </c>
       <c r="C240">
-        <v>41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="D240">
         <v>2746126.101</v>
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B241">
-        <v>152</v>
+        <v>0.0152</v>
       </c>
       <c r="C241">
-        <v>65</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="D241">
         <v>2746123.583</v>
@@ -7126,10 +7126,10 @@
         </is>
       </c>
       <c r="B242">
-        <v>29</v>
+        <v>0.0029</v>
       </c>
       <c r="C242">
-        <v>32</v>
+        <v>0.0032</v>
       </c>
       <c r="D242">
         <v>2737473.074</v>
@@ -7154,10 +7154,10 @@
         </is>
       </c>
       <c r="B243">
-        <v>68</v>
+        <v>0.0068</v>
       </c>
       <c r="C243">
-        <v>70</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="D243">
         <v>2737471.948</v>
@@ -7182,10 +7182,10 @@
         </is>
       </c>
       <c r="B244">
-        <v>74</v>
+        <v>0.0074</v>
       </c>
       <c r="C244">
-        <v>81</v>
+        <v>0.008100000000000001</v>
       </c>
       <c r="D244">
         <v>2737470.146</v>
@@ -7210,10 +7210,10 @@
         </is>
       </c>
       <c r="B245">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C245">
-        <v>23</v>
+        <v>0.0023</v>
       </c>
       <c r="D245">
         <v>2737486.904</v>
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B246">
-        <v>45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="C246">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="D246">
         <v>2737486.324</v>
@@ -7266,10 +7266,10 @@
         </is>
       </c>
       <c r="B247">
-        <v>70</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="C247">
-        <v>64</v>
+        <v>0.0064</v>
       </c>
       <c r="D247">
         <v>2737485.114</v>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="B248">
-        <v>43</v>
+        <v>0.0043</v>
       </c>
       <c r="C248">
-        <v>23</v>
+        <v>0.0023</v>
       </c>
       <c r="D248">
         <v>2737514.831</v>
@@ -7322,10 +7322,10 @@
         </is>
       </c>
       <c r="B249">
-        <v>104</v>
+        <v>0.0104</v>
       </c>
       <c r="C249">
-        <v>43</v>
+        <v>0.0043</v>
       </c>
       <c r="D249">
         <v>2737514.786</v>
@@ -7350,10 +7350,10 @@
         </is>
       </c>
       <c r="B250">
-        <v>163</v>
+        <v>0.0163</v>
       </c>
       <c r="C250">
-        <v>51</v>
+        <v>0.0051</v>
       </c>
       <c r="D250">
         <v>2737514.604</v>
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B251">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="C251">
-        <v>31</v>
+        <v>0.0031</v>
       </c>
       <c r="D251">
         <v>2737557.603</v>
@@ -7406,10 +7406,10 @@
         </is>
       </c>
       <c r="B252">
-        <v>98</v>
+        <v>0.0098</v>
       </c>
       <c r="C252">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="D252">
         <v>2737558.256</v>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="B253">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="C253">
-        <v>83</v>
+        <v>0.0083</v>
       </c>
       <c r="D253">
         <v>2737557.385</v>
@@ -7462,10 +7462,10 @@
         </is>
       </c>
       <c r="B254">
-        <v>5</v>
+        <v>0.0005</v>
       </c>
       <c r="C254">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="D254">
         <v>2724032.757</v>
@@ -7490,10 +7490,10 @@
         </is>
       </c>
       <c r="B255">
-        <v>30</v>
+        <v>0.003</v>
       </c>
       <c r="C255">
-        <v>92</v>
+        <v>0.0092</v>
       </c>
       <c r="D255">
         <v>2724031.554</v>
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B256">
-        <v>105</v>
+        <v>0.0105</v>
       </c>
       <c r="C256">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="D256">
         <v>2724030.937</v>
@@ -7546,10 +7546,10 @@
         </is>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>0.0002</v>
       </c>
       <c r="C257">
-        <v>26</v>
+        <v>0.0026</v>
       </c>
       <c r="D257">
         <v>2724021.807</v>
@@ -7574,10 +7574,10 @@
         </is>
       </c>
       <c r="B258">
-        <v>26</v>
+        <v>0.0026</v>
       </c>
       <c r="C258">
-        <v>45</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="D258">
         <v>2724020.474</v>
@@ -7602,10 +7602,10 @@
         </is>
       </c>
       <c r="B259">
-        <v>97</v>
+        <v>0.0097</v>
       </c>
       <c r="C259">
-        <v>61</v>
+        <v>0.0061</v>
       </c>
       <c r="D259">
         <v>2724019.255</v>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="B260">
-        <v>47</v>
+        <v>0.004699999999999999</v>
       </c>
       <c r="C260">
-        <v>26</v>
+        <v>0.0026</v>
       </c>
       <c r="D260">
         <v>2724005.212</v>
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B261">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="C261">
-        <v>37</v>
+        <v>0.0037</v>
       </c>
       <c r="D261">
         <v>2724008.182</v>
@@ -7686,10 +7686,10 @@
         </is>
       </c>
       <c r="B262">
-        <v>97</v>
+        <v>0.0097</v>
       </c>
       <c r="C262">
-        <v>41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="D262">
         <v>2724013.766</v>
@@ -7714,10 +7714,10 @@
         </is>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C263">
-        <v>14</v>
+        <v>0.0014</v>
       </c>
       <c r="D263">
         <v>2723959.961</v>
@@ -7742,10 +7742,10 @@
         </is>
       </c>
       <c r="B264">
-        <v>31</v>
+        <v>0.0031</v>
       </c>
       <c r="C264">
-        <v>32</v>
+        <v>0.0032</v>
       </c>
       <c r="D264">
         <v>2723967.743</v>
@@ -7770,10 +7770,10 @@
         </is>
       </c>
       <c r="B265">
-        <v>32</v>
+        <v>0.0032</v>
       </c>
       <c r="C265">
-        <v>40</v>
+        <v>0.004</v>
       </c>
       <c r="D265">
         <v>2723976.307</v>
@@ -7798,10 +7798,10 @@
         </is>
       </c>
       <c r="B266">
-        <v>22</v>
+        <v>0.0022</v>
       </c>
       <c r="C266">
-        <v>37</v>
+        <v>0.0037</v>
       </c>
       <c r="D266">
         <v>2735248.432</v>
@@ -7826,10 +7826,10 @@
         </is>
       </c>
       <c r="B267">
-        <v>115</v>
+        <v>0.0115</v>
       </c>
       <c r="C267">
-        <v>42</v>
+        <v>0.0042</v>
       </c>
       <c r="D267">
         <v>2735246.433</v>
@@ -7854,10 +7854,10 @@
         </is>
       </c>
       <c r="B268">
-        <v>102</v>
+        <v>0.0102</v>
       </c>
       <c r="C268">
-        <v>38</v>
+        <v>0.0038</v>
       </c>
       <c r="D268">
         <v>2735243.729</v>
@@ -7882,10 +7882,10 @@
         </is>
       </c>
       <c r="B269">
-        <v>73</v>
+        <v>0.0073</v>
       </c>
       <c r="C269">
-        <v>41</v>
+        <v>0.004099999999999999</v>
       </c>
       <c r="D269">
         <v>2735262.993</v>
@@ -7910,10 +7910,10 @@
         </is>
       </c>
       <c r="B270">
-        <v>90</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="C270">
-        <v>38</v>
+        <v>0.0038</v>
       </c>
       <c r="D270">
         <v>2735260.913</v>
@@ -7938,10 +7938,10 @@
         </is>
       </c>
       <c r="B271">
-        <v>131</v>
+        <v>0.0131</v>
       </c>
       <c r="C271">
-        <v>43</v>
+        <v>0.0043</v>
       </c>
       <c r="D271">
         <v>2735258.67</v>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="B272">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="C272">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D272">
         <v>2735319.698</v>
@@ -7994,10 +7994,10 @@
         </is>
       </c>
       <c r="B273">
-        <v>220</v>
+        <v>0.022</v>
       </c>
       <c r="C273">
-        <v>38</v>
+        <v>0.0038</v>
       </c>
       <c r="D273">
         <v>2735317.244</v>
@@ -8022,10 +8022,10 @@
         </is>
       </c>
       <c r="B274">
-        <v>172</v>
+        <v>0.0172</v>
       </c>
       <c r="C274">
-        <v>37</v>
+        <v>0.0037</v>
       </c>
       <c r="D274">
         <v>2735316.334</v>
@@ -8050,10 +8050,10 @@
         </is>
       </c>
       <c r="B275">
-        <v>64</v>
+        <v>0.0064</v>
       </c>
       <c r="C275">
-        <v>43</v>
+        <v>0.0043</v>
       </c>
       <c r="D275">
         <v>2735341.645</v>
@@ -8078,10 +8078,10 @@
         </is>
       </c>
       <c r="B276">
-        <v>118</v>
+        <v>0.0118</v>
       </c>
       <c r="C276">
-        <v>40</v>
+        <v>0.004</v>
       </c>
       <c r="D276">
         <v>2735336.819</v>
@@ -8106,10 +8106,10 @@
         </is>
       </c>
       <c r="B277">
-        <v>108</v>
+        <v>0.0108</v>
       </c>
       <c r="C277">
-        <v>31</v>
+        <v>0.0031</v>
       </c>
       <c r="D277">
         <v>2735334.931</v>
@@ -8134,10 +8134,10 @@
         </is>
       </c>
       <c r="B278">
-        <v>32</v>
+        <v>0.0032</v>
       </c>
       <c r="C278">
-        <v>22</v>
+        <v>0.0022</v>
       </c>
       <c r="D278">
         <v>2735745.309</v>
@@ -8162,10 +8162,10 @@
         </is>
       </c>
       <c r="B279">
-        <v>74</v>
+        <v>0.0074</v>
       </c>
       <c r="C279">
-        <v>34</v>
+        <v>0.0034</v>
       </c>
       <c r="D279">
         <v>2735746.741</v>
@@ -8190,10 +8190,10 @@
         </is>
       </c>
       <c r="B280">
-        <v>125</v>
+        <v>0.0125</v>
       </c>
       <c r="C280">
-        <v>52</v>
+        <v>0.0052</v>
       </c>
       <c r="D280">
         <v>2735749.743</v>
@@ -8218,10 +8218,10 @@
         </is>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="C281">
-        <v>11</v>
+        <v>0.0011</v>
       </c>
       <c r="D281">
         <v>2735754.012</v>
@@ -8246,10 +8246,10 @@
         </is>
       </c>
       <c r="B282">
-        <v>22</v>
+        <v>0.0022</v>
       </c>
       <c r="C282">
-        <v>23</v>
+        <v>0.0023</v>
       </c>
       <c r="D282">
         <v>2735755.207</v>
@@ -8274,10 +8274,10 @@
         </is>
       </c>
       <c r="B283">
-        <v>97</v>
+        <v>0.0097</v>
       </c>
       <c r="C283">
-        <v>66</v>
+        <v>0.0066</v>
       </c>
       <c r="D283">
         <v>2735757.467</v>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="B284">
-        <v>44</v>
+        <v>0.0044</v>
       </c>
       <c r="C284">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D284">
         <v>2735773.042</v>
@@ -8330,10 +8330,10 @@
         </is>
       </c>
       <c r="B285">
-        <v>91</v>
+        <v>0.0091</v>
       </c>
       <c r="C285">
-        <v>23</v>
+        <v>0.0023</v>
       </c>
       <c r="D285">
         <v>2735774.299</v>
@@ -8358,10 +8358,10 @@
         </is>
       </c>
       <c r="B286">
-        <v>133</v>
+        <v>0.0133</v>
       </c>
       <c r="C286">
-        <v>48</v>
+        <v>0.0048</v>
       </c>
       <c r="D286">
         <v>2735776.987</v>
@@ -8386,10 +8386,10 @@
         </is>
       </c>
       <c r="B287">
-        <v>51</v>
+        <v>0.0051</v>
       </c>
       <c r="C287">
-        <v>10</v>
+        <v>0.001</v>
       </c>
       <c r="D287">
         <v>2735805.85</v>
@@ -8414,10 +8414,10 @@
         </is>
       </c>
       <c r="B288">
-        <v>93</v>
+        <v>0.009300000000000001</v>
       </c>
       <c r="C288">
-        <v>24</v>
+        <v>0.0024</v>
       </c>
       <c r="D288">
         <v>2735802.55</v>
@@ -8442,10 +8442,10 @@
         </is>
       </c>
       <c r="B289">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="C289">
-        <v>20</v>
+        <v>0.002</v>
       </c>
       <c r="D289">
         <v>2735800.157</v>
@@ -8470,10 +8470,10 @@
         </is>
       </c>
       <c r="B290">
-        <v>27</v>
+        <v>0.0027</v>
       </c>
       <c r="C290">
-        <v>14</v>
+        <v>0.0014</v>
       </c>
       <c r="D290">
         <v>2728888.154</v>
@@ -8498,10 +8498,10 @@
         </is>
       </c>
       <c r="B291">
-        <v>72</v>
+        <v>0.0072</v>
       </c>
       <c r="C291">
-        <v>23</v>
+        <v>0.0023</v>
       </c>
       <c r="D291">
         <v>2728890.032</v>
@@ -8526,10 +8526,10 @@
         </is>
       </c>
       <c r="B292">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="C292">
-        <v>32</v>
+        <v>0.0032</v>
       </c>
       <c r="D292">
         <v>2728892.753</v>
@@ -8554,10 +8554,10 @@
         </is>
       </c>
       <c r="B293">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="C293">
-        <v>34</v>
+        <v>0.0034</v>
       </c>
       <c r="D293">
         <v>2728883.182</v>
@@ -8582,10 +8582,10 @@
         </is>
       </c>
       <c r="B294">
-        <v>48</v>
+        <v>0.0048</v>
       </c>
       <c r="C294">
-        <v>69</v>
+        <v>0.0069</v>
       </c>
       <c r="D294">
         <v>2728884.638</v>
@@ -8610,10 +8610,10 @@
         </is>
       </c>
       <c r="B295">
-        <v>63</v>
+        <v>0.0063</v>
       </c>
       <c r="C295">
-        <v>43</v>
+        <v>0.0043</v>
       </c>
       <c r="D295">
         <v>2728885.663</v>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="B296">
-        <v>52</v>
+        <v>0.0052</v>
       </c>
       <c r="C296">
-        <v>28</v>
+        <v>0.0028</v>
       </c>
       <c r="D296">
         <v>2728759.408</v>
@@ -8666,10 +8666,10 @@
         </is>
       </c>
       <c r="B297">
-        <v>158</v>
+        <v>0.0158</v>
       </c>
       <c r="C297">
-        <v>35</v>
+        <v>0.0035</v>
       </c>
       <c r="D297">
         <v>2728760.321</v>
@@ -8694,10 +8694,10 @@
         </is>
       </c>
       <c r="B298">
-        <v>130</v>
+        <v>0.013</v>
       </c>
       <c r="C298">
-        <v>52</v>
+        <v>0.0052</v>
       </c>
       <c r="D298">
         <v>2728761.36</v>
@@ -8722,10 +8722,10 @@
         </is>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="C299">
-        <v>16</v>
+        <v>0.0016</v>
       </c>
       <c r="D299">
         <v>2728750.883</v>
@@ -8750,10 +8750,10 @@
         </is>
       </c>
       <c r="B300">
-        <v>69</v>
+        <v>0.0069</v>
       </c>
       <c r="C300">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="D300">
         <v>2728752.901</v>
@@ -8778,10 +8778,10 @@
         </is>
       </c>
       <c r="B301">
-        <v>69</v>
+        <v>0.0069</v>
       </c>
       <c r="C301">
-        <v>50</v>
+        <v>0.005</v>
       </c>
       <c r="D301">
         <v>2728753.806</v>

--- a/Pre_Processing/abiotic_mi_sampling/lab_univariate.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_univariate.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:I373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,6 +398,11 @@
           <t>k_index</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rel_abundance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -426,6 +431,9 @@
       <c r="H2">
         <v>0.5485953150653826</v>
       </c>
+      <c r="I2">
+        <v>0.06882487891919449</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -454,6 +462,9 @@
       <c r="H3">
         <v>0.5363057255239215</v>
       </c>
+      <c r="I3">
+        <v>0.1934743818506245</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -482,6 +493,9 @@
       <c r="H4">
         <v>0.529841186003194</v>
       </c>
+      <c r="I4">
+        <v>0.1774152434361458</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -510,6 +524,9 @@
       <c r="H5">
         <v>0.478223450567199</v>
       </c>
+      <c r="I5">
+        <v>0.1560030588835075</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -538,6 +555,9 @@
       <c r="H6">
         <v>0.6420399538104906</v>
       </c>
+      <c r="I6">
+        <v>0.5358144277338771</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -566,6 +586,9 @@
       <c r="H7">
         <v>0.6183372241113069</v>
       </c>
+      <c r="I7">
+        <v>0.3821055314810095</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -594,6 +617,9 @@
       <c r="H8">
         <v>0.6356987510419649</v>
       </c>
+      <c r="I8">
+        <v>0.1687484068315065</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -622,6 +648,9 @@
       <c r="H9">
         <v>0.6635912125213518</v>
       </c>
+      <c r="I9">
+        <v>0.4570481774152435</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -650,6 +679,9 @@
       <c r="H10">
         <v>0.6892154578800617</v>
       </c>
+      <c r="I10">
+        <v>0.6640326280907469</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -678,6 +710,9 @@
       <c r="H11">
         <v>0.6770608290733158</v>
       </c>
+      <c r="I11">
+        <v>0.2337496813663013</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -706,6 +741,9 @@
       <c r="H12">
         <v>0.6256041478411185</v>
       </c>
+      <c r="I12">
+        <v>0.1845526382870252</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -734,6 +772,9 @@
       <c r="H13">
         <v>0.6335305332163931</v>
       </c>
+      <c r="I13">
+        <v>0.6507774662248279</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -762,6 +803,9 @@
       <c r="H14">
         <v>0.6752998188539738</v>
       </c>
+      <c r="I14">
+        <v>0.9039000764720877</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -790,6 +834,9 @@
       <c r="H15">
         <v>0.6962875713764218</v>
       </c>
+      <c r="I15">
+        <v>0.4598521539638032</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -818,6 +865,9 @@
       <c r="H16">
         <v>0.6603830631008019</v>
       </c>
+      <c r="I16">
+        <v>0.4297731328065256</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -846,6 +896,9 @@
       <c r="H17">
         <v>0.5923707400561022</v>
       </c>
+      <c r="I17">
+        <v>0.2768289574305379</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -874,6 +927,9 @@
       <c r="H18">
         <v>0.5117407152868427</v>
       </c>
+      <c r="I18">
+        <v>0.1279632933979098</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -902,6 +958,9 @@
       <c r="H19">
         <v>0.6419101630811613</v>
       </c>
+      <c r="I19">
+        <v>0.175375987764466</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -930,6 +989,9 @@
       <c r="H20">
         <v>0.5904201547526735</v>
       </c>
+      <c r="I20">
+        <v>0.2964567932704563</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -958,6 +1020,9 @@
       <c r="H21">
         <v>0.6796317589014113</v>
       </c>
+      <c r="I21">
+        <v>0.3420851389242927</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -986,6 +1051,9 @@
       <c r="H22">
         <v>0.5694270988740116</v>
       </c>
+      <c r="I22">
+        <v>0.4843232220239613</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1014,6 +1082,9 @@
       <c r="H23">
         <v>0.5524394921702581</v>
       </c>
+      <c r="I23">
+        <v>0.1432577109355085</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1042,6 +1113,9 @@
       <c r="H24">
         <v>0.5656623596307125</v>
       </c>
+      <c r="I24">
+        <v>0.3071628855467754</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1070,6 +1144,9 @@
       <c r="H25">
         <v>0.6281582110609817</v>
       </c>
+      <c r="I25">
+        <v>0.3451440224318124</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1098,6 +1175,9 @@
       <c r="H26">
         <v>0.54763332493868</v>
       </c>
+      <c r="I26">
+        <v>0.1565128728014275</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1126,6 +1206,9 @@
       <c r="H27">
         <v>0.4784633128657706</v>
       </c>
+      <c r="I27">
+        <v>0.1633953606933469</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1154,6 +1237,9 @@
       <c r="H28">
         <v>0.5525087102984479</v>
       </c>
+      <c r="I28">
+        <v>0.2151414733622228</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1182,6 +1268,9 @@
       <c r="H29">
         <v>0.5870937926443752</v>
       </c>
+      <c r="I29">
+        <v>0.07213866938567423</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1210,6 +1299,9 @@
       <c r="H30">
         <v>0.6285753282965061</v>
       </c>
+      <c r="I30">
+        <v>0.2426714249299006</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1238,6 +1330,9 @@
       <c r="H31">
         <v>0.5524374268749169</v>
       </c>
+      <c r="I31">
+        <v>0.3453989293907724</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1266,6 +1361,9 @@
       <c r="H32">
         <v>0.6018090698203808</v>
       </c>
+      <c r="I32">
+        <v>0.1544736171297476</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1294,6 +1392,9 @@
       <c r="H33">
         <v>0.5928407871179728</v>
       </c>
+      <c r="I33">
+        <v>0.2888095845016569</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1322,6 +1423,9 @@
       <c r="H34">
         <v>0.427392295839597</v>
       </c>
+      <c r="I34">
+        <v>0.08845271475911293</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1350,6 +1454,9 @@
       <c r="H35">
         <v>0.5736680672356866</v>
       </c>
+      <c r="I35">
+        <v>0.2564364007137395</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1378,6 +1485,9 @@
       <c r="H36">
         <v>0.5369957253732909</v>
       </c>
+      <c r="I36">
+        <v>0.2806525618149375</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1406,6 +1516,9 @@
       <c r="H37">
         <v>0.5648973365510637</v>
       </c>
+      <c r="I37">
+        <v>0.1799643130257456</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1434,6 +1547,9 @@
       <c r="H38">
         <v>0.6248609028068418</v>
       </c>
+      <c r="I38">
+        <v>0.2760642365536579</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1462,6 +1578,9 @@
       <c r="H39">
         <v>0.4843873340770625</v>
       </c>
+      <c r="I39">
+        <v>0.2179454499107826</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1490,6 +1609,9 @@
       <c r="H40">
         <v>0.4027274174172494</v>
       </c>
+      <c r="I40">
+        <v>0.2240632169258221</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1518,6 +1640,9 @@
       <c r="H41">
         <v>0.6237207889506821</v>
       </c>
+      <c r="I41">
+        <v>0.2852408870762172</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1546,6 +1671,9 @@
       <c r="H42">
         <v>0.4569399368693891</v>
       </c>
+      <c r="I42">
+        <v>0.08743308692327301</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1574,6 +1702,9 @@
       <c r="H43">
         <v>0.3942410018805377</v>
       </c>
+      <c r="I43">
+        <v>0.09813917919959216</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1602,6 +1733,9 @@
       <c r="H44">
         <v>0.6071607779355824</v>
       </c>
+      <c r="I44">
+        <v>0.1827682895743054</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1630,6 +1764,9 @@
       <c r="H45">
         <v>0.3837936813325213</v>
       </c>
+      <c r="I45">
+        <v>0.03823604384399694</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1658,6 +1795,9 @@
       <c r="H46">
         <v>0.4341494199948694</v>
       </c>
+      <c r="I46">
+        <v>0.09890390007647208</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1686,6 +1826,9 @@
       <c r="H47">
         <v>0.5322984681993593</v>
       </c>
+      <c r="I47">
+        <v>0.1213357124649503</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1714,6 +1857,9 @@
       <c r="H48">
         <v>0.4250986685555665</v>
       </c>
+      <c r="I48">
+        <v>0.09100178434871271</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1742,6 +1888,9 @@
       <c r="H49">
         <v>0.4364718905314778</v>
       </c>
+      <c r="I49">
+        <v>0.07137394850879429</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1770,6 +1919,9 @@
       <c r="H50">
         <v>0.5895834985534288</v>
       </c>
+      <c r="I50">
+        <v>0.08743308692327301</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1798,6 +1950,9 @@
       <c r="H51">
         <v>0.4227158291506118</v>
       </c>
+      <c r="I51">
+        <v>0.1111394341065511</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1826,6 +1981,9 @@
       <c r="H52">
         <v>0.3692452044936689</v>
       </c>
+      <c r="I52">
+        <v>0.0637267397399949</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1854,6 +2012,9 @@
       <c r="H53">
         <v>0.5672492665265561</v>
       </c>
+      <c r="I53">
+        <v>0.1134335967371909</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1882,6 +2043,9 @@
       <c r="H54">
         <v>0.4182785394199628</v>
       </c>
+      <c r="I54">
+        <v>0.05225592658679582</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1910,6 +2074,9 @@
       <c r="H55">
         <v>0.400568698136771</v>
       </c>
+      <c r="I55">
+        <v>0.06755034412439459</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1938,6 +2105,9 @@
       <c r="H56">
         <v>0.4954561708990869</v>
       </c>
+      <c r="I56">
+        <v>0.04894213612031609</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1966,6 +2136,9 @@
       <c r="H57">
         <v>0.5865813005520584</v>
       </c>
+      <c r="I57">
+        <v>0.1034922253377517</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1994,6 +2167,9 @@
       <c r="H58">
         <v>0.286385819158103</v>
       </c>
+      <c r="I58">
+        <v>0.03517716033647719</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2022,6 +2198,9 @@
       <c r="H59">
         <v>0.4335995718702244</v>
       </c>
+      <c r="I59">
+        <v>0.09584501656895233</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2050,6 +2229,9 @@
       <c r="H60">
         <v>0.4164669902176591</v>
       </c>
+      <c r="I60">
+        <v>0.06321692582207494</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2078,6 +2260,9 @@
       <c r="H61">
         <v>0.3814868567144137</v>
       </c>
+      <c r="I61">
+        <v>0.0163140453734387</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2106,6 +2291,9 @@
       <c r="H62">
         <v>0.5153427870485421</v>
       </c>
+      <c r="I62">
+        <v>0.187101707876625</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2134,6 +2322,9 @@
       <c r="H63">
         <v>0.5294062439285556</v>
       </c>
+      <c r="I63">
+        <v>0.05862860056079531</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2162,6 +2353,9 @@
       <c r="H64">
         <v>0.3997541627009466</v>
       </c>
+      <c r="I64">
+        <v>0.01529441753759878</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2190,6 +2384,9 @@
       <c r="H65">
         <v>0.4407159589527076</v>
       </c>
+      <c r="I65">
+        <v>0.1381595717563089</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2218,6 +2415,9 @@
       <c r="H66">
         <v>0.4114335239833945</v>
       </c>
+      <c r="I66">
+        <v>0.03543206729543717</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2246,6 +2446,9 @@
       <c r="H67">
         <v>0.3877604031134933</v>
       </c>
+      <c r="I67">
+        <v>0.02396125414223808</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2274,6 +2477,9 @@
       <c r="H68">
         <v>0.6884355808874545</v>
       </c>
+      <c r="I68">
+        <v>0.1860820800407851</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2302,6 +2508,9 @@
       <c r="H69">
         <v>0.5043486845507443</v>
       </c>
+      <c r="I69">
+        <v>0.03186336986999745</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2330,6 +2539,9 @@
       <c r="H70">
         <v>0.4018385646898535</v>
       </c>
+      <c r="I70">
+        <v>0.01045118531735916</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2358,6 +2570,9 @@
       <c r="H71">
         <v>0.6207724530815778</v>
       </c>
+      <c r="I71">
+        <v>0.1088452714759113</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2386,6 +2601,9 @@
       <c r="H72">
         <v>0.5156811456755928</v>
       </c>
+      <c r="I72">
+        <v>0.06958959979607443</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2414,6 +2632,9 @@
       <c r="H73">
         <v>0.4360621066317155</v>
       </c>
+      <c r="I73">
+        <v>0.007647208768799388</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2442,6 +2663,9 @@
       <c r="H74">
         <v>0.5018764750658596</v>
       </c>
+      <c r="I74">
+        <v>0.06678562324751466</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2470,6 +2694,9 @@
       <c r="H75">
         <v>0.4312964422722272</v>
       </c>
+      <c r="I75">
+        <v>0.05658934488911548</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2498,6 +2725,9 @@
       <c r="H76">
         <v>0.4881332592952109</v>
       </c>
+      <c r="I76">
+        <v>0.02803976548559776</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2526,6 +2756,9 @@
       <c r="H77">
         <v>0.7663827900553473</v>
       </c>
+      <c r="I77">
+        <v>0.2153963803211828</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2554,6 +2787,9 @@
       <c r="H78">
         <v>0.5218169371125859</v>
       </c>
+      <c r="I78">
+        <v>0.04358908998215651</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2582,6 +2818,9 @@
       <c r="H79">
         <v>0.5618593107314733</v>
       </c>
+      <c r="I79">
+        <v>0.0762171807290339</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2610,6 +2849,9 @@
       <c r="H80">
         <v>0.7032608726754999</v>
       </c>
+      <c r="I80">
+        <v>0.2783583991842977</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2638,6 +2880,9 @@
       <c r="H81">
         <v>0.7254986813956158</v>
       </c>
+      <c r="I81">
+        <v>0.2434361458067805</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2666,6 +2911,9 @@
       <c r="H82">
         <v>0.66088738281781</v>
       </c>
+      <c r="I82">
+        <v>0.1644149885291868</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2694,6 +2942,9 @@
       <c r="H83">
         <v>0.6412024197923554</v>
       </c>
+      <c r="I83">
+        <v>0.2143767524853429</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2722,6 +2973,9 @@
       <c r="H84">
         <v>0.6208900492944155</v>
       </c>
+      <c r="I84">
+        <v>0.07851134335967372</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2750,6 +3004,9 @@
       <c r="H85">
         <v>0.6872454924474473</v>
       </c>
+      <c r="I85">
+        <v>0.1516696405811879</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2778,6 +3035,9 @@
       <c r="H86">
         <v>0.5931500804020329</v>
       </c>
+      <c r="I86">
+        <v>0.550344124394596</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2806,6 +3066,9 @@
       <c r="H87">
         <v>0.700037910413436</v>
       </c>
+      <c r="I87">
+        <v>0.6841702778485853</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2834,6 +3097,9 @@
       <c r="H88">
         <v>0.5722140960503217</v>
       </c>
+      <c r="I88">
+        <v>0.1934743818506245</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2862,6 +3128,9 @@
       <c r="H89">
         <v>0.4788287245773171</v>
       </c>
+      <c r="I89">
+        <v>0.2212592403772623</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2890,6 +3159,9 @@
       <c r="H90">
         <v>0.5492663472964681</v>
       </c>
+      <c r="I90">
+        <v>0.1514147336222279</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2918,6 +3190,9 @@
       <c r="H91">
         <v>0.6782793115408492</v>
       </c>
+      <c r="I91">
+        <v>0.4348712719857252</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2946,6 +3221,9 @@
       <c r="H92">
         <v>0.7944698634188829</v>
       </c>
+      <c r="I92">
+        <v>0.275044608717818</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2974,6 +3252,9 @@
       <c r="H93">
         <v>0.7538032828398383</v>
       </c>
+      <c r="I93">
+        <v>0.9635483048687229</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3002,6 +3283,9 @@
       <c r="H94">
         <v>0.5763198711374872</v>
       </c>
+      <c r="I94">
+        <v>0.3538108590364517</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3030,6 +3314,9 @@
       <c r="H95">
         <v>0.7150430949140457</v>
       </c>
+      <c r="I95">
+        <v>0.8725465205200102</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3058,6 +3345,9 @@
       <c r="H96">
         <v>0.6319677185233525</v>
       </c>
+      <c r="I96">
+        <v>0.312515931684935</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3086,6 +3376,9 @@
       <c r="H97">
         <v>0.5834197387980213</v>
       </c>
+      <c r="I97">
+        <v>0.2217690542951823</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3114,6 +3407,9 @@
       <c r="H98">
         <v>0.5824923105731863</v>
       </c>
+      <c r="I98">
+        <v>0.09431557481519245</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3142,6 +3438,9 @@
       <c r="H99">
         <v>0.6216245638413438</v>
       </c>
+      <c r="I99">
+        <v>0.05990313535559521</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3170,6 +3469,9 @@
       <c r="H100">
         <v>0.6600752214463927</v>
       </c>
+      <c r="I100">
+        <v>0.05862860056079531</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3198,6 +3500,9 @@
       <c r="H101">
         <v>0.5394291467246843</v>
       </c>
+      <c r="I101">
+        <v>0.100433341830232</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3226,6 +3531,9 @@
       <c r="H102">
         <v>0.5496953811335061</v>
       </c>
+      <c r="I102">
+        <v>0.05862860056079531</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3254,6 +3562,9 @@
       <c r="H103">
         <v>0.5583736984653636</v>
       </c>
+      <c r="I103">
+        <v>0.06423655365791486</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3282,6 +3593,9 @@
       <c r="H104">
         <v>0.6611625764955162</v>
       </c>
+      <c r="I104">
+        <v>0.2416517970940607</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3310,6 +3624,9 @@
       <c r="H105">
         <v>0.7886934247434989</v>
       </c>
+      <c r="I105">
+        <v>0.363242416517971</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3338,6 +3655,9 @@
       <c r="H106">
         <v>0.8328479808783356</v>
       </c>
+      <c r="I106">
+        <v>0.7693092021412185</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3366,6 +3686,9 @@
       <c r="H107">
         <v>0.6998527223150061</v>
       </c>
+      <c r="I107">
+        <v>0.2220239612541422</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3394,6 +3717,9 @@
       <c r="H108">
         <v>0.8449588171082605</v>
       </c>
+      <c r="I108">
+        <v>0.6201886311496304</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3422,6 +3748,9 @@
       <c r="H109">
         <v>0.73806283602559</v>
       </c>
+      <c r="I109">
+        <v>0.2857507009941371</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3450,6 +3779,9 @@
       <c r="H110">
         <v>0.6544621772923842</v>
       </c>
+      <c r="I110">
+        <v>0.2439459597247005</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3478,6 +3810,9 @@
       <c r="H111">
         <v>0.447376277151458</v>
       </c>
+      <c r="I111">
+        <v>0.1218455263828703</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3506,6 +3841,9 @@
       <c r="H112">
         <v>0.5380558470099963</v>
       </c>
+      <c r="I112">
+        <v>0.09839408615855214</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3534,6 +3872,9 @@
       <c r="H113">
         <v>0.5528891461373848</v>
       </c>
+      <c r="I113">
+        <v>0.100178434871272</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3562,6 +3903,9 @@
       <c r="H114">
         <v>0.5411506951527776</v>
       </c>
+      <c r="I114">
+        <v>0.08666836604639307</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3590,6 +3934,9 @@
       <c r="H115">
         <v>0.6755613981959827</v>
       </c>
+      <c r="I115">
+        <v>0.12490440989039</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3618,6 +3965,9 @@
       <c r="H116">
         <v>0.5531288391846807</v>
       </c>
+      <c r="I116">
+        <v>0.1315319908233495</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3646,6 +3996,9 @@
       <c r="H117">
         <v>0.5910217167803676</v>
       </c>
+      <c r="I117">
+        <v>0.1297476421106296</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3674,6 +4027,9 @@
       <c r="H118">
         <v>0.678513887453935</v>
       </c>
+      <c r="I118">
+        <v>0.3132806525618149</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3702,6 +4058,9 @@
       <c r="H119">
         <v>0.5181495788592965</v>
       </c>
+      <c r="I119">
+        <v>0.2166709151159827</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3730,6 +4089,9 @@
       <c r="H120">
         <v>0.6730463327865328</v>
       </c>
+      <c r="I120">
+        <v>0.1904154983431048</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3758,6 +4120,9 @@
       <c r="H121">
         <v>0.6323710798993218</v>
       </c>
+      <c r="I121">
+        <v>0.1779250573540658</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3786,6 +4151,9 @@
       <c r="H122">
         <v>0.5276362213417708</v>
       </c>
+      <c r="I122">
+        <v>0.2732602600050981</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3814,6 +4182,9 @@
       <c r="H123">
         <v>0.5510750521378271</v>
       </c>
+      <c r="I123">
+        <v>0.2582207494264593</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3842,6 +4213,9 @@
       <c r="H124">
         <v>0.6737659156856891</v>
       </c>
+      <c r="I124">
+        <v>0.2031608462911038</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3870,6 +4244,9 @@
       <c r="H125">
         <v>0.4471770469434545</v>
       </c>
+      <c r="I125">
+        <v>0.3173591639051746</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3898,6 +4275,9 @@
       <c r="H126">
         <v>0.517461448080016</v>
       </c>
+      <c r="I126">
+        <v>0.1603364771858272</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3926,6 +4306,9 @@
       <c r="H127">
         <v>0.594065837875862</v>
       </c>
+      <c r="I127">
+        <v>0.2301809839408616</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3954,6 +4337,9 @@
       <c r="H128">
         <v>0.516617717000577</v>
       </c>
+      <c r="I128">
+        <v>0.2029059393321438</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3982,6 +4368,9 @@
       <c r="H129">
         <v>0.7610323746875046</v>
       </c>
+      <c r="I129">
+        <v>0.4616365026765231</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4010,6 +4399,9 @@
       <c r="H130">
         <v>0.4683379236133717</v>
       </c>
+      <c r="I130">
+        <v>0.06780525108335457</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4038,6 +4430,9 @@
       <c r="H131">
         <v>0.7049563957400022</v>
       </c>
+      <c r="I131">
+        <v>0.8246240122355341</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4066,6 +4461,9 @@
       <c r="H132">
         <v>0.7468382812764024</v>
       </c>
+      <c r="I132">
+        <v>0.5215396380321182</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4094,6 +4492,9 @@
       <c r="H133">
         <v>0.6371876603986203</v>
       </c>
+      <c r="I133">
+        <v>0.2895743053785368</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4122,6 +4523,9 @@
       <c r="H134">
         <v>0.4261273455881937</v>
       </c>
+      <c r="I134">
+        <v>0.1353555952077492</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4150,6 +4554,9 @@
       <c r="H135">
         <v>0.4976096404932552</v>
       </c>
+      <c r="I135">
+        <v>0.2023961254142238</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4178,6 +4585,9 @@
       <c r="H136">
         <v>0.6273138866475858</v>
       </c>
+      <c r="I136">
+        <v>0.2862605149120571</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4206,6 +4616,9 @@
       <c r="H137">
         <v>0.5105455167033898</v>
       </c>
+      <c r="I137">
+        <v>0.224573030843742</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4234,6 +4647,9 @@
       <c r="H138">
         <v>0.6179787813647418</v>
       </c>
+      <c r="I138">
+        <v>0.2760642365536579</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4262,6 +4678,9 @@
       <c r="H139">
         <v>0.5991814042643014</v>
       </c>
+      <c r="I139">
+        <v>0.1384144787152689</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4290,6 +4709,9 @@
       <c r="H140">
         <v>0.6646640164686575</v>
       </c>
+      <c r="I140">
+        <v>0.3313790466479735</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4318,6 +4740,9 @@
       <c r="H141">
         <v>0.7254840900554038</v>
       </c>
+      <c r="I141">
+        <v>0.4422635737955646</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4346,6 +4771,9 @@
       <c r="H142">
         <v>0.6342635043298576</v>
       </c>
+      <c r="I142">
+        <v>0.1328065256181494</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4374,6 +4802,9 @@
       <c r="H143">
         <v>0.3079321303500797</v>
       </c>
+      <c r="I143">
+        <v>0.07213866938567423</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4402,6 +4833,9 @@
       <c r="H144">
         <v>0.5270154947326479</v>
       </c>
+      <c r="I144">
+        <v>0.1422380830996686</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4430,6 +4864,9 @@
       <c r="H145">
         <v>0.7067548955430225</v>
       </c>
+      <c r="I145">
+        <v>0.324496558756054</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4458,6 +4895,9 @@
       <c r="H146">
         <v>0.5568230556881038</v>
       </c>
+      <c r="I146">
+        <v>0.6150904919704308</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4486,6 +4926,9 @@
       <c r="H147">
         <v>0.6321598999045048</v>
       </c>
+      <c r="I147">
+        <v>0.3015549324496559</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4514,6 +4957,9 @@
       <c r="H148">
         <v>0.6231433911862757</v>
       </c>
+      <c r="I148">
+        <v>0.3359673719092531</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4542,6 +4988,9 @@
       <c r="H149">
         <v>0.5658211674526841</v>
       </c>
+      <c r="I149">
+        <v>0.5212847310731583</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4570,6 +5019,9 @@
       <c r="H150">
         <v>0.7260220005824354</v>
       </c>
+      <c r="I150">
+        <v>0.3237318378791741</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4598,6 +5050,9 @@
       <c r="H151">
         <v>0.5061781957835838</v>
       </c>
+      <c r="I151">
+        <v>0.1972979862350242</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4626,6 +5081,9 @@
       <c r="H152">
         <v>0.557939506751411</v>
       </c>
+      <c r="I152">
+        <v>0.5681876115217945</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4654,6 +5112,9 @@
       <c r="H153">
         <v>0.7104212051644909</v>
       </c>
+      <c r="I153">
+        <v>0.7114453224573031</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4682,6 +5143,9 @@
       <c r="H154">
         <v>0.6540116870073692</v>
       </c>
+      <c r="I154">
+        <v>0.3038490950802957</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4710,6 +5174,9 @@
       <c r="H155">
         <v>0.587629853869767</v>
       </c>
+      <c r="I155">
+        <v>0.6599541167473872</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4738,6 +5205,9 @@
       <c r="H156">
         <v>0.5375269187003403</v>
       </c>
+      <c r="I156">
+        <v>0.3341830231965333</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4766,6 +5236,9 @@
       <c r="H157">
         <v>0.7332103283944046</v>
       </c>
+      <c r="I157">
+        <v>0.4091256691307673</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4794,6 +5267,9 @@
       <c r="H158">
         <v>0.4070514912333458</v>
       </c>
+      <c r="I158">
+        <v>0.200611776701504</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4822,6 +5298,9 @@
       <c r="H159">
         <v>0.3877234196190052</v>
       </c>
+      <c r="I159">
+        <v>0.2416517970940607</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4850,6 +5329,9 @@
       <c r="H160">
         <v>0.346805314956072</v>
       </c>
+      <c r="I160">
+        <v>0.01911802192199847</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4878,6 +5360,9 @@
       <c r="H161">
         <v>0.5478807285338454</v>
       </c>
+      <c r="I161">
+        <v>0.6189140963548305</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4906,6 +5391,9 @@
       <c r="H162">
         <v>0.3036989082153569</v>
       </c>
+      <c r="I162">
+        <v>0.05964822839663523</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4934,6 +5422,9 @@
       <c r="H163">
         <v>0.4128455532153302</v>
       </c>
+      <c r="I163">
+        <v>0.1042569462146317</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4962,6 +5453,9 @@
       <c r="H164">
         <v>0.5087318909398437</v>
       </c>
+      <c r="I164">
+        <v>0.2638287025235789</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4990,6 +5484,9 @@
       <c r="H165">
         <v>0.3300367530392101</v>
       </c>
+      <c r="I165">
+        <v>0.0774917155238338</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5018,6 +5515,9 @@
       <c r="H166">
         <v>0.4985637104550805</v>
       </c>
+      <c r="I166">
+        <v>0.1506500127453479</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5046,6 +5546,9 @@
       <c r="H167">
         <v>0.881947591722721</v>
       </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5074,6 +5577,9 @@
       <c r="H168">
         <v>0.435303365972637</v>
       </c>
+      <c r="I168">
+        <v>0.0512362987509559</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5102,6 +5608,9 @@
       <c r="H169">
         <v>0.3727127878946523</v>
       </c>
+      <c r="I169">
+        <v>0.08513892429263319</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5130,6 +5639,9 @@
       <c r="H170">
         <v>0.4672643254723127</v>
       </c>
+      <c r="I170">
+        <v>0.06755034412439459</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5158,6 +5670,9 @@
       <c r="H171">
         <v>0.4512754255205912</v>
       </c>
+      <c r="I171">
+        <v>0.01401988274279888</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5186,6 +5701,9 @@
       <c r="H172">
         <v>0.5856519552056402</v>
       </c>
+      <c r="I172">
+        <v>0.01860820800407851</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5214,6 +5732,9 @@
       <c r="H173">
         <v>0.3957231908633751</v>
       </c>
+      <c r="I173">
+        <v>0.01988274279887841</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5242,6 +5763,9 @@
       <c r="H174">
         <v>0.3407129366536897</v>
       </c>
+      <c r="I174">
+        <v>0.01988274279887841</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5270,6 +5794,9 @@
       <c r="H175">
         <v>0.4943560732059855</v>
       </c>
+      <c r="I175">
+        <v>0.02192199847055825</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5298,6 +5825,9 @@
       <c r="H176">
         <v>0.3894659165945794</v>
       </c>
+      <c r="I176">
+        <v>0.04664797348967627</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5326,6 +5856,9 @@
       <c r="H177">
         <v>0.3972718787630633</v>
       </c>
+      <c r="I177">
+        <v>0.05225592658679582</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5354,6 +5887,9 @@
       <c r="H178">
         <v>0.3525785329690619</v>
       </c>
+      <c r="I178">
+        <v>0.01172572011215906</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5382,6 +5918,9 @@
       <c r="H179">
         <v>0.3734524248977131</v>
       </c>
+      <c r="I179">
+        <v>0.01452969666071884</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5410,6 +5949,9 @@
       <c r="H180">
         <v>0.3529443225359194</v>
       </c>
+      <c r="I180">
+        <v>0.012490440989039</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5438,6 +5980,9 @@
       <c r="H181">
         <v>0.3462686029684791</v>
       </c>
+      <c r="I181">
+        <v>0.01096099923527912</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5466,6 +6011,9 @@
       <c r="H182">
         <v>0.3111092959190128</v>
       </c>
+      <c r="I182">
+        <v>0.12541422380831</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5494,6 +6042,9 @@
       <c r="H183">
         <v>0.3478865171728364</v>
       </c>
+      <c r="I183">
+        <v>0.2944175375987764</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5522,6 +6073,9 @@
       <c r="H184">
         <v>0.439649075309</v>
       </c>
+      <c r="I184">
+        <v>0.4203415753250064</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5550,6 +6104,9 @@
       <c r="H185">
         <v>0.5252353807195813</v>
       </c>
+      <c r="I185">
+        <v>0.1636502676523069</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5578,6 +6135,9 @@
       <c r="H186">
         <v>0.4312068143045225</v>
       </c>
+      <c r="I186">
+        <v>0.03415753250063727</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5606,6 +6166,9 @@
       <c r="H187">
         <v>0.488291650188561</v>
       </c>
+      <c r="I187">
+        <v>0.049961763956156</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5634,6 +6197,9 @@
       <c r="H188">
         <v>0.5892387742946252</v>
       </c>
+      <c r="I188">
+        <v>0.09890390007647208</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5662,6 +6228,9 @@
       <c r="H189">
         <v>0.5704238353275128</v>
       </c>
+      <c r="I189">
+        <v>0.04053020647463676</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5690,6 +6259,9 @@
       <c r="H190">
         <v>0.4679504693202704</v>
       </c>
+      <c r="I190">
+        <v>0.05913841447871527</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5718,6 +6290,9 @@
       <c r="H191">
         <v>0.4757093745669734</v>
       </c>
+      <c r="I191">
+        <v>0.4208513892429263</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5746,6 +6321,9 @@
       <c r="H192">
         <v>0.4678900217298543</v>
       </c>
+      <c r="I192">
+        <v>0.05429518225847565</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5774,6 +6352,9 @@
       <c r="H193">
         <v>0.5053020167763284</v>
       </c>
+      <c r="I193">
+        <v>0.06449146061687484</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5802,6 +6383,9 @@
       <c r="H194">
         <v>0.4999298256409668</v>
       </c>
+      <c r="I194">
+        <v>0.09278613306143257</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5830,6 +6414,9 @@
       <c r="H195">
         <v>0.5168151105630832</v>
       </c>
+      <c r="I195">
+        <v>0.287025235788937</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5858,6 +6445,9 @@
       <c r="H196">
         <v>0.5843919879859644</v>
       </c>
+      <c r="I196">
+        <v>0.2913586540912567</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5886,6 +6476,9 @@
       <c r="H197">
         <v>0.2901609162211841</v>
       </c>
+      <c r="I197">
+        <v>0.2439459597247005</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5914,6 +6507,9 @@
       <c r="H198">
         <v>0.4607331015033133</v>
       </c>
+      <c r="I198">
+        <v>0.0986489931175121</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5942,6 +6538,9 @@
       <c r="H199">
         <v>0.5534827364923161</v>
       </c>
+      <c r="I199">
+        <v>0.2041804741269437</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5970,6 +6569,9 @@
       <c r="H200">
         <v>0.5335324826802157</v>
       </c>
+      <c r="I200">
+        <v>0.1741014529696661</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5998,6 +6600,9 @@
       <c r="H201">
         <v>0.5217022315722755</v>
       </c>
+      <c r="I201">
+        <v>0.2164160081570227</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6026,6 +6631,9 @@
       <c r="H202">
         <v>0.5479260741173384</v>
       </c>
+      <c r="I202">
+        <v>0.2974764211062962</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6054,6 +6662,9 @@
       <c r="H203">
         <v>0.4717525247682349</v>
       </c>
+      <c r="I203">
+        <v>0.07851134335967372</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6082,6 +6693,9 @@
       <c r="H204">
         <v>0.5584658561378416</v>
       </c>
+      <c r="I204">
+        <v>0.300280397654856</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6110,6 +6724,9 @@
       <c r="H205">
         <v>0.5566084563372938</v>
       </c>
+      <c r="I205">
+        <v>0.3790466479734897</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6138,6 +6755,9 @@
       <c r="H206">
         <v>0.5996410125898052</v>
       </c>
+      <c r="I206">
+        <v>0.2179454499107826</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6166,6 +6786,9 @@
       <c r="H207">
         <v>0.7139216794897036</v>
       </c>
+      <c r="I207">
+        <v>0.2551618659189396</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6194,6 +6817,9 @@
       <c r="H208">
         <v>0.651002701376552</v>
       </c>
+      <c r="I208">
+        <v>0.2393576344634208</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6222,6 +6848,9 @@
       <c r="H209">
         <v>0.5907156350659786</v>
       </c>
+      <c r="I209">
+        <v>0.2745347947998981</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6250,6 +6879,9 @@
       <c r="H210">
         <v>0.508797227651214</v>
       </c>
+      <c r="I210">
+        <v>0.03619678817231711</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6278,6 +6910,9 @@
       <c r="H211">
         <v>0.6769479807218604</v>
       </c>
+      <c r="I211">
+        <v>0.1588070354320673</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6306,6 +6941,9 @@
       <c r="H212">
         <v>0.6187559842690881</v>
       </c>
+      <c r="I212">
+        <v>0.1330614325771094</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6334,6 +6972,9 @@
       <c r="H213">
         <v>0.6503997424458814</v>
       </c>
+      <c r="I213">
+        <v>0.2839663522814173</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6362,6 +7003,9 @@
       <c r="H214">
         <v>0.7049390794152921</v>
       </c>
+      <c r="I214">
+        <v>0.2783583991842977</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6390,6 +7034,9 @@
       <c r="H215">
         <v>0.5113891134382315</v>
       </c>
+      <c r="I215">
+        <v>0.2360438439969411</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6418,6 +7065,9 @@
       <c r="H216">
         <v>0.5892033316985105</v>
       </c>
+      <c r="I216">
+        <v>0.09686464440479226</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6446,6 +7096,9 @@
       <c r="H217">
         <v>0.6117444906477078</v>
       </c>
+      <c r="I217">
+        <v>0.1233749681366301</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6474,6 +7127,9 @@
       <c r="H218">
         <v>0.4805586537600741</v>
       </c>
+      <c r="I218">
+        <v>0.08360948253887331</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6502,6 +7158,9 @@
       <c r="H219">
         <v>0.5705865907131348</v>
       </c>
+      <c r="I219">
+        <v>0.1208258985470303</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6530,6 +7189,9 @@
       <c r="H220">
         <v>0.5559132395462925</v>
       </c>
+      <c r="I220">
+        <v>0.1351006882487892</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6558,6 +7220,9 @@
       <c r="H221">
         <v>0.6003972487820737</v>
       </c>
+      <c r="I221">
+        <v>0.1975528931939842</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6586,6 +7251,9 @@
       <c r="H222">
         <v>0.6222461074481808</v>
       </c>
+      <c r="I222">
+        <v>0.08692327300535305</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6614,6 +7282,9 @@
       <c r="H223">
         <v>0.5190793222611748</v>
       </c>
+      <c r="I223">
+        <v>0.1078256436400714</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6642,6 +7313,9 @@
       <c r="H224">
         <v>0.5971850078703826</v>
       </c>
+      <c r="I224">
+        <v>0.3935763446342085</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6670,6 +7344,9 @@
       <c r="H225">
         <v>0.5554244153127804</v>
       </c>
+      <c r="I225">
+        <v>0.1266887586031099</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6698,6 +7375,9 @@
       <c r="H226">
         <v>0</v>
       </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6726,6 +7406,9 @@
       <c r="H227">
         <v>0.4744813350264594</v>
       </c>
+      <c r="I227">
+        <v>0.2077491715523834</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6754,6 +7437,9 @@
       <c r="H228">
         <v>0.5815419925337799</v>
       </c>
+      <c r="I228">
+        <v>0.1786897782309457</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6782,6 +7468,9 @@
       <c r="H229">
         <v>0</v>
       </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6810,6 +7499,9 @@
       <c r="H230">
         <v>0.6909442846404458</v>
       </c>
+      <c r="I230">
+        <v>0.2788682131022177</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6838,6 +7530,9 @@
       <c r="H231">
         <v>0.6492565710373243</v>
       </c>
+      <c r="I231">
+        <v>0.06143257710935508</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6866,6 +7561,9 @@
       <c r="H232">
         <v>0.6090601403760446</v>
       </c>
+      <c r="I232">
+        <v>0.1208258985470303</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6894,6 +7592,9 @@
       <c r="H233">
         <v>0.6080364339088072</v>
       </c>
+      <c r="I233">
+        <v>0.212082589854703</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6922,6 +7623,9 @@
       <c r="H234">
         <v>0.6282332865744111</v>
       </c>
+      <c r="I234">
+        <v>0.07341320418047413</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6950,6 +7654,9 @@
       <c r="H235">
         <v>0.4528115286546725</v>
       </c>
+      <c r="I235">
+        <v>0.03109864899311751</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6978,6 +7685,9 @@
       <c r="H236">
         <v>0.7776581920693447</v>
       </c>
+      <c r="I236">
+        <v>0.1679836859546266</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7006,6 +7716,9 @@
       <c r="H237">
         <v>0.7030765440789977</v>
       </c>
+      <c r="I237">
+        <v>0.1006882487891919</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7034,6 +7747,9 @@
       <c r="H238">
         <v>0.7518472760926583</v>
       </c>
+      <c r="I238">
+        <v>0.06551108845271476</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7062,6 +7778,9 @@
       <c r="H239">
         <v>0.5914315744199091</v>
       </c>
+      <c r="I239">
+        <v>0.08513892429263319</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7090,6 +7809,9 @@
       <c r="H240">
         <v>0.7269981827471623</v>
       </c>
+      <c r="I240">
+        <v>0.1544736171297476</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7118,6 +7840,9 @@
       <c r="H241">
         <v>0.6787981751630701</v>
       </c>
+      <c r="I241">
+        <v>0.08947234259495285</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7146,6 +7871,9 @@
       <c r="H242">
         <v>0.5357586770155353</v>
       </c>
+      <c r="I242">
+        <v>0.09966862095335202</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7174,6 +7902,9 @@
       <c r="H243">
         <v>0.6499009033187788</v>
       </c>
+      <c r="I243">
+        <v>0.2210043334183023</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7202,6 +7933,9 @@
       <c r="H244">
         <v>0.5352171888678838</v>
       </c>
+      <c r="I244">
+        <v>0.1440224318123885</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7230,6 +7964,9 @@
       <c r="H245">
         <v>0.6224391218952988</v>
       </c>
+      <c r="I245">
+        <v>0.4139689013510069</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7258,6 +7995,9 @@
       <c r="H246">
         <v>0.6676048129340644</v>
       </c>
+      <c r="I246">
+        <v>0.08717817996431303</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7286,6 +8026,9 @@
       <c r="H247">
         <v>0.6490813840372198</v>
       </c>
+      <c r="I247">
+        <v>0.1980627071119042</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7314,6 +8057,9 @@
       <c r="H248">
         <v>0.5947781488726994</v>
       </c>
+      <c r="I248">
+        <v>0.1572775936783074</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7342,6 +8088,9 @@
       <c r="H249">
         <v>0.7408314362782543</v>
       </c>
+      <c r="I249">
+        <v>0.2080040785113434</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7370,6 +8119,9 @@
       <c r="H250">
         <v>0.8074127592522421</v>
       </c>
+      <c r="I250">
+        <v>0.3007902115727759</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7398,6 +8150,9 @@
       <c r="H251">
         <v>0.6965032737294435</v>
       </c>
+      <c r="I251">
+        <v>0.2645934234004588</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7426,6 +8181,9 @@
       <c r="H252">
         <v>0.6939054740349114</v>
       </c>
+      <c r="I252">
+        <v>0.05888350751975529</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7454,6 +8212,9 @@
       <c r="H253">
         <v>0.6839566381701407</v>
       </c>
+      <c r="I253">
+        <v>0.08794290084119297</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7482,6 +8243,9 @@
       <c r="H254">
         <v>0.3465431910624523</v>
       </c>
+      <c r="I254">
+        <v>0.1639051746112669</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7510,6 +8274,9 @@
       <c r="H255">
         <v>0.3652087047336786</v>
       </c>
+      <c r="I255">
+        <v>0.01478460361967882</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7538,6 +8305,9 @@
       <c r="H256">
         <v>0.3365529531939618</v>
       </c>
+      <c r="I256">
+        <v>0.01045118531735916</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7566,6 +8336,9 @@
       <c r="H257">
         <v>0.4464894440267647</v>
       </c>
+      <c r="I257">
+        <v>0.08998215651287281</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7594,6 +8367,9 @@
       <c r="H258">
         <v>0.4017031567014157</v>
       </c>
+      <c r="I258">
+        <v>0.03033392811623757</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7622,6 +8398,9 @@
       <c r="H259">
         <v>0.3357152018414182</v>
       </c>
+      <c r="I259">
+        <v>0.012490440989039</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7650,6 +8429,9 @@
       <c r="H260">
         <v>0.3397698508681454</v>
       </c>
+      <c r="I260">
+        <v>0.08641345908743309</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7678,6 +8460,9 @@
       <c r="H261">
         <v>0.3952698228687394</v>
       </c>
+      <c r="I261">
+        <v>0.01937292888095845</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7706,6 +8491,9 @@
       <c r="H262">
         <v>0.4676688889050047</v>
       </c>
+      <c r="I262">
+        <v>0.009431557481519245</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7734,6 +8522,9 @@
       <c r="H263">
         <v>0.463056277391339</v>
       </c>
+      <c r="I263">
+        <v>0.08845271475911293</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7762,6 +8553,9 @@
       <c r="H264">
         <v>0.4444970547496962</v>
       </c>
+      <c r="I264">
+        <v>0.02472597501911802</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7790,6 +8584,9 @@
       <c r="H265">
         <v>0.3936220288787006</v>
       </c>
+      <c r="I265">
+        <v>0.02472597501911802</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7818,6 +8615,9 @@
       <c r="H266">
         <v>0.550358566458273</v>
       </c>
+      <c r="I266">
+        <v>0.07953097119551364</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7846,6 +8646,9 @@
       <c r="H267">
         <v>0.3361066288251524</v>
       </c>
+      <c r="I267">
+        <v>0.003313790466479735</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7874,6 +8677,9 @@
       <c r="H268">
         <v>0.4741602871347674</v>
       </c>
+      <c r="I268">
+        <v>0.02268671934743818</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7902,6 +8708,9 @@
       <c r="H269">
         <v>0.4962930698154563</v>
       </c>
+      <c r="I269">
+        <v>0.1725720112159062</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7930,6 +8739,9 @@
       <c r="H270">
         <v>0.4063547102595119</v>
       </c>
+      <c r="I270">
+        <v>0.162630639816467</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7958,6 +8770,9 @@
       <c r="H271">
         <v>0.3511322202816103</v>
       </c>
+      <c r="I271">
+        <v>0.009176650522559266</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7986,6 +8801,9 @@
       <c r="H272">
         <v>0.3693858758115012</v>
       </c>
+      <c r="I272">
+        <v>0.1057863879683915</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8014,6 +8832,9 @@
       <c r="H273">
         <v>0.4618047813410333</v>
       </c>
+      <c r="I273">
+        <v>0.1167473872036707</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8042,6 +8863,9 @@
       <c r="H274">
         <v>0.385186589885486</v>
       </c>
+      <c r="I274">
+        <v>0.01911802192199847</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8070,6 +8894,9 @@
       <c r="H275">
         <v>0.4746452467499637</v>
       </c>
+      <c r="I275">
+        <v>0.1345908743308692</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8098,6 +8925,9 @@
       <c r="H276">
         <v>0.4279772529275337</v>
       </c>
+      <c r="I276">
+        <v>0.049961763956156</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8126,6 +8956,9 @@
       <c r="H277">
         <v>0.3623647097280213</v>
       </c>
+      <c r="I277">
+        <v>0.007647208768799388</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8154,6 +8987,9 @@
       <c r="H278">
         <v>0.4434091042987829</v>
       </c>
+      <c r="I278">
+        <v>0.3007902115727759</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8182,6 +9018,9 @@
       <c r="H279">
         <v>0.3957096151450505</v>
       </c>
+      <c r="I279">
+        <v>0.2141218455263829</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8210,6 +9049,9 @@
       <c r="H280">
         <v>0.6456989539983702</v>
       </c>
+      <c r="I280">
+        <v>0.4483813408106042</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8238,6 +9080,9 @@
       <c r="H281">
         <v>0.5765320894460818</v>
       </c>
+      <c r="I281">
+        <v>0.8659189395870507</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8266,6 +9111,9 @@
       <c r="H282">
         <v>0.3507484269092703</v>
       </c>
+      <c r="I282">
+        <v>0.08309966862095335</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8294,6 +9142,9 @@
       <c r="H283">
         <v>0.4894703311459729</v>
       </c>
+      <c r="I283">
+        <v>0.1300025490695896</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8322,6 +9173,9 @@
       <c r="H284">
         <v>0.4822665403727283</v>
       </c>
+      <c r="I284">
+        <v>0.5248534284985981</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8350,6 +9204,9 @@
       <c r="H285">
         <v>0.4307660187115643</v>
       </c>
+      <c r="I285">
+        <v>0.2215141473362223</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8378,6 +9235,9 @@
       <c r="H286">
         <v>0.5515426397427555</v>
       </c>
+      <c r="I286">
+        <v>0.287280142747897</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8406,6 +9266,9 @@
       <c r="H287">
         <v>0.4680692745254503</v>
       </c>
+      <c r="I287">
+        <v>0.8656640326280908</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8434,6 +9297,9 @@
       <c r="H288">
         <v>0.4123065109156883</v>
       </c>
+      <c r="I288">
+        <v>0.6115217945449911</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8462,6 +9328,9 @@
       <c r="H289">
         <v>0.5060051176846359</v>
       </c>
+      <c r="I289">
+        <v>0.3762426714249299</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8490,6 +9359,9 @@
       <c r="H290">
         <v>0.4818133221136165</v>
       </c>
+      <c r="I290">
+        <v>0.1034922253377517</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8518,6 +9390,9 @@
       <c r="H291">
         <v>0.354063612442105</v>
       </c>
+      <c r="I291">
+        <v>0.037471322967117</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8546,6 +9421,9 @@
       <c r="H292">
         <v>0.3624730187447922</v>
       </c>
+      <c r="I292">
+        <v>0.06780525108335457</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8574,6 +9452,9 @@
       <c r="H293">
         <v>0.4202228165446114</v>
       </c>
+      <c r="I293">
+        <v>0.06296201886311496</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8602,6 +9483,9 @@
       <c r="H294">
         <v>0.426169703689602</v>
       </c>
+      <c r="I294">
+        <v>0.04792250828447617</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8630,6 +9514,9 @@
       <c r="H295">
         <v>0.3785941696107098</v>
       </c>
+      <c r="I295">
+        <v>0.05990313535559521</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8658,6 +9545,9 @@
       <c r="H296">
         <v>0.3512436319272216</v>
       </c>
+      <c r="I296">
+        <v>0.1804741269436656</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8686,6 +9576,9 @@
       <c r="H297">
         <v>0.4378162758852215</v>
       </c>
+      <c r="I297">
+        <v>0.03670660209023707</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8714,6 +9607,9 @@
       <c r="H298">
         <v>0.4964584579394542</v>
       </c>
+      <c r="I298">
+        <v>0.1305123629875096</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8742,6 +9638,9 @@
       <c r="H299">
         <v>0.4291409359294351</v>
       </c>
+      <c r="I299">
+        <v>0.1185317359163905</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8770,6 +9669,9 @@
       <c r="H300">
         <v>0.409644055962445</v>
       </c>
+      <c r="I300">
+        <v>0.07137394850879429</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8798,6 +9700,9 @@
       <c r="H301">
         <v>0.4354660733561193</v>
       </c>
+      <c r="I301">
+        <v>0.09813917919959216</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8826,6 +9731,9 @@
       <c r="H302">
         <v>0.3588444628821906</v>
       </c>
+      <c r="I302">
+        <v>0.04894213612031609</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8854,6 +9762,9 @@
       <c r="H303">
         <v>0.3740441558325293</v>
       </c>
+      <c r="I303">
+        <v>0.04690288044863625</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8882,6 +9793,9 @@
       <c r="H304">
         <v>0.4026100122505807</v>
       </c>
+      <c r="I304">
+        <v>0.02829467244455774</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8910,6 +9824,9 @@
       <c r="H305">
         <v>0.2972259549627782</v>
       </c>
+      <c r="I305">
+        <v>0.0525108335457558</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8938,6 +9855,9 @@
       <c r="H306">
         <v>0.4248215396185189</v>
       </c>
+      <c r="I306">
+        <v>0.05531481009431558</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8966,6 +9886,9 @@
       <c r="H307">
         <v>0.3127431833233502</v>
       </c>
+      <c r="I307">
+        <v>0.01758858016823859</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -8994,6 +9917,9 @@
       <c r="H308">
         <v>0.4484463594607833</v>
       </c>
+      <c r="I308">
+        <v>0.24955391282182</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9022,6 +9948,9 @@
       <c r="H309">
         <v>0.4729064405494533</v>
       </c>
+      <c r="I309">
+        <v>0.1947489166454244</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9050,6 +9979,9 @@
       <c r="H310">
         <v>0.352658097799978</v>
       </c>
+      <c r="I310">
+        <v>0.03696150904919705</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9078,6 +10010,9 @@
       <c r="H311">
         <v>0.3688389433856244</v>
       </c>
+      <c r="I311">
+        <v>0.1442773387713485</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9106,6 +10041,9 @@
       <c r="H312">
         <v>0.448598515462586</v>
       </c>
+      <c r="I312">
+        <v>0.1771603364771858</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9134,6 +10072,9 @@
       <c r="H313">
         <v>0.3089187496379082</v>
       </c>
+      <c r="I313">
+        <v>0.08106041294927352</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9162,6 +10103,9 @@
       <c r="H314">
         <v>0.4756377203345265</v>
       </c>
+      <c r="I314">
+        <v>0.03313790466479735</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9190,6 +10134,9 @@
       <c r="H315">
         <v>0.5370878009393472</v>
       </c>
+      <c r="I315">
+        <v>0.03211827682895743</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9218,6 +10165,9 @@
       <c r="H316">
         <v>0.5373246522552924</v>
       </c>
+      <c r="I316">
+        <v>0.02778485852663778</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9246,6 +10196,9 @@
       <c r="H317">
         <v>0.549204129928246</v>
       </c>
+      <c r="I317">
+        <v>0.0412949273515167</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9274,6 +10227,9 @@
       <c r="H318">
         <v>0.5972139678446143</v>
       </c>
+      <c r="I318">
+        <v>0.02854957940351771</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9302,6 +10258,9 @@
       <c r="H319">
         <v>0.4448021008190241</v>
       </c>
+      <c r="I319">
+        <v>0.01274534794799898</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9330,6 +10289,9 @@
       <c r="H320">
         <v>0.5534335302548972</v>
       </c>
+      <c r="I320">
+        <v>0.04843232220239613</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9358,6 +10320,9 @@
       <c r="H321">
         <v>0.5884925923872867</v>
       </c>
+      <c r="I321">
+        <v>0.1200611776701504</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9386,6 +10351,9 @@
       <c r="H322">
         <v>0.5043989668702773</v>
       </c>
+      <c r="I322">
+        <v>0.1481009431557481</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9414,6 +10382,9 @@
       <c r="H323">
         <v>0.4121674972071811</v>
       </c>
+      <c r="I323">
+        <v>0.01401988274279888</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9442,6 +10413,9 @@
       <c r="H324">
         <v>0.4380956395907946</v>
       </c>
+      <c r="I324">
+        <v>0.007137394850879429</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9470,6 +10444,9 @@
       <c r="H325">
         <v>0.5604314635760708</v>
       </c>
+      <c r="I325">
+        <v>0.06194239102727504</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9498,6 +10475,9 @@
       <c r="H326">
         <v>0.465247365231357</v>
       </c>
+      <c r="I326">
+        <v>0.08488401733367321</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9526,6 +10506,9 @@
       <c r="H327">
         <v>0.4022767516367762</v>
       </c>
+      <c r="I327">
+        <v>0.04154983431047667</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9554,6 +10537,9 @@
       <c r="H328">
         <v>0.4556613403121042</v>
       </c>
+      <c r="I328">
+        <v>0.03645169513127709</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9582,6 +10568,9 @@
       <c r="H329">
         <v>0.625302457415258</v>
       </c>
+      <c r="I329">
+        <v>0.2857507009941371</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9610,6 +10599,9 @@
       <c r="H330">
         <v>0.3978584153410157</v>
       </c>
+      <c r="I330">
+        <v>0.05021667091511598</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9638,6 +10630,9 @@
       <c r="H331">
         <v>0.3884963607724454</v>
       </c>
+      <c r="I331">
+        <v>0.02778485852663778</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9666,6 +10661,9 @@
       <c r="H332">
         <v>0.5950119066512164</v>
       </c>
+      <c r="I332">
+        <v>0.3764975783838899</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9694,6 +10692,9 @@
       <c r="H333">
         <v>0.6266707937231452</v>
       </c>
+      <c r="I333">
+        <v>0.2184552638287025</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9722,6 +10723,9 @@
       <c r="H334">
         <v>0.587276381138752</v>
       </c>
+      <c r="I334">
+        <v>0.04588325261279633</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9750,6 +10754,9 @@
       <c r="H335">
         <v>0.4932061409756582</v>
       </c>
+      <c r="I335">
+        <v>0.337496813663013</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9778,6 +10785,9 @@
       <c r="H336">
         <v>0.552291385154891</v>
       </c>
+      <c r="I336">
+        <v>0.2854957940351772</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9806,6 +10816,9 @@
       <c r="H337">
         <v>0.5903031605426339</v>
       </c>
+      <c r="I337">
+        <v>0.1445322457303084</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9834,6 +10847,9 @@
       <c r="H338">
         <v>0.5229599161019738</v>
       </c>
+      <c r="I338">
+        <v>0.1396890135100688</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9862,6 +10878,9 @@
       <c r="H339">
         <v>0.3723781101145074</v>
       </c>
+      <c r="I339">
+        <v>0.1677287789956666</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9890,6 +10909,9 @@
       <c r="H340">
         <v>0.6615844210678209</v>
       </c>
+      <c r="I340">
+        <v>0.1177670150395106</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9918,6 +10940,9 @@
       <c r="H341">
         <v>0.5761896379437081</v>
       </c>
+      <c r="I341">
+        <v>0.2174356359928626</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -9946,6 +10971,9 @@
       <c r="H342">
         <v>0.4102722364644201</v>
       </c>
+      <c r="I342">
+        <v>0.0525108335457558</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -9974,6 +11002,9 @@
       <c r="H343">
         <v>0.3529023517183952</v>
       </c>
+      <c r="I343">
+        <v>0.02676523069079786</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -10002,6 +11033,9 @@
       <c r="H344">
         <v>0.5894362364596096</v>
       </c>
+      <c r="I344">
+        <v>0.3471832781034922</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -10030,6 +11064,9 @@
       <c r="H345">
         <v>0.6879078095777234</v>
       </c>
+      <c r="I345">
+        <v>0.1185317359163905</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -10058,6 +11095,9 @@
       <c r="H346">
         <v>0.3994629772955152</v>
       </c>
+      <c r="I346">
+        <v>0.0387458577619169</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -10086,6 +11126,9 @@
       <c r="H347">
         <v>0.6052096684650086</v>
       </c>
+      <c r="I347">
+        <v>0.1730818251338262</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10114,6 +11157,9 @@
       <c r="H348">
         <v>0.6603238706192417</v>
       </c>
+      <c r="I348">
+        <v>0.3280652561814937</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10142,6 +11188,9 @@
       <c r="H349">
         <v>0.4426505934990291</v>
       </c>
+      <c r="I349">
+        <v>0.1333163395360693</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -10170,6 +11219,9 @@
       <c r="H350">
         <v>0.8152731109432306</v>
       </c>
+      <c r="I350">
+        <v>0.1386693856742289</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -10198,6 +11250,9 @@
       <c r="H351">
         <v>0.7683806190759745</v>
       </c>
+      <c r="I351">
+        <v>0.1172572011215906</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -10226,6 +11281,9 @@
       <c r="H352">
         <v>0.7837990536491168</v>
       </c>
+      <c r="I352">
+        <v>0.074942645934234</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -10254,6 +11312,9 @@
       <c r="H353">
         <v>0.6034500835244426</v>
       </c>
+      <c r="I353">
+        <v>0.162885546775427</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -10282,6 +11343,9 @@
       <c r="H354">
         <v>0.6985688956909827</v>
       </c>
+      <c r="I354">
+        <v>0.07468773897527403</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10310,6 +11374,9 @@
       <c r="H355">
         <v>0.717014854165669</v>
       </c>
+      <c r="I355">
+        <v>0.09711955136375224</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10338,6 +11405,9 @@
       <c r="H356">
         <v>0.5730415347011861</v>
       </c>
+      <c r="I356">
+        <v>0.2355340300790212</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10366,6 +11436,9 @@
       <c r="H357">
         <v>0.7168875595157871</v>
       </c>
+      <c r="I357">
+        <v>0.1611011980627071</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10394,6 +11467,9 @@
       <c r="H358">
         <v>0.6720408693265226</v>
       </c>
+      <c r="I358">
+        <v>0.1335712464950293</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10422,6 +11498,9 @@
       <c r="H359">
         <v>0.7857831153889652</v>
       </c>
+      <c r="I359">
+        <v>0.1534539892939077</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10450,6 +11529,9 @@
       <c r="H360">
         <v>0.590144356862224</v>
       </c>
+      <c r="I360">
+        <v>0.7137394850879429</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10478,6 +11560,9 @@
       <c r="H361">
         <v>0.3937455761067253</v>
       </c>
+      <c r="I361">
+        <v>0.2090237063471833</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10506,6 +11591,9 @@
       <c r="H362">
         <v>0.6222643091445268</v>
       </c>
+      <c r="I362">
+        <v>0.07468773897527403</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10534,6 +11622,9 @@
       <c r="H363">
         <v>0.6353381802250659</v>
       </c>
+      <c r="I363">
+        <v>0.08845271475911293</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10562,6 +11653,9 @@
       <c r="H364">
         <v>0.3914974359206395</v>
       </c>
+      <c r="I364">
+        <v>0.03007902115727759</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10590,6 +11684,9 @@
       <c r="H365">
         <v>0.6644197185312692</v>
       </c>
+      <c r="I365">
+        <v>0.04537343869487637</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10618,6 +11715,9 @@
       <c r="H366">
         <v>0.5301855141221414</v>
       </c>
+      <c r="I366">
+        <v>0.03594188121335713</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10646,6 +11746,9 @@
       <c r="H367">
         <v>0.5411524651937996</v>
       </c>
+      <c r="I367">
+        <v>0.04664797348967627</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10674,6 +11777,9 @@
       <c r="H368">
         <v>0.5304321887389323</v>
       </c>
+      <c r="I368">
+        <v>0.162885546775427</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10702,6 +11808,9 @@
       <c r="H369">
         <v>0.3896446246095097</v>
       </c>
+      <c r="I369">
+        <v>0.1682385929135865</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10730,6 +11839,9 @@
       <c r="H370">
         <v>0.5479232688899232</v>
       </c>
+      <c r="I370">
+        <v>0.07468773897527403</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10758,6 +11870,9 @@
       <c r="H371">
         <v>0.745615504850053</v>
       </c>
+      <c r="I371">
+        <v>0.1593168493499872</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10786,6 +11901,9 @@
       <c r="H372">
         <v>0.5777186245529164</v>
       </c>
+      <c r="I372">
+        <v>0.1646698954881468</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10813,6 +11931,9 @@
       </c>
       <c r="H373">
         <v>0.5530831804314104</v>
+      </c>
+      <c r="I373">
+        <v>0.09635483048687229</v>
       </c>
     </row>
   </sheetData>
